--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -17328,6 +17328,7 @@
         <v>44816</v>
       </c>
     </row>
+    <row r="267"/>
     <row r="1048573">
       <c r="N1048573" s="4" t="n"/>
     </row>

--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -17328,7 +17328,6 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="267"/>
     <row r="1048573">
       <c r="N1048573" s="4" t="n"/>
     </row>

--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -670,7 +670,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" style="13" min="2" max="2"/>
     <col width="14" customWidth="1" style="13" min="3" max="3"/>
@@ -724,7 +724,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
   <cols>
     <col width="20.7109375" customWidth="1" style="13" min="1" max="1"/>
     <col width="22.7109375" customWidth="1" style="13" min="2" max="2"/>
@@ -2470,7 +2470,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
   <cols>
     <col width="49.42578125" customWidth="1" style="13" min="2" max="2"/>
     <col width="25" customWidth="1" style="13" min="3" max="3"/>
@@ -17585,7 +17585,7 @@
       <selection activeCell="I985" sqref="I985"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
   <cols>
     <col width="16.42578125" customWidth="1" style="13" min="2" max="2"/>
     <col width="17.85546875" customWidth="1" style="13" min="4" max="4"/>

--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -670,7 +670,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col width="12" customWidth="1" style="13" min="2" max="2"/>
     <col width="14" customWidth="1" style="13" min="3" max="3"/>
@@ -724,7 +724,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
     <col width="20.7109375" customWidth="1" style="13" min="1" max="1"/>
     <col width="22.7109375" customWidth="1" style="13" min="2" max="2"/>
@@ -2470,7 +2470,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
     <col width="49.42578125" customWidth="1" style="13" min="2" max="2"/>
     <col width="25" customWidth="1" style="13" min="3" max="3"/>
@@ -17585,7 +17585,7 @@
       <selection activeCell="I985" sqref="I985"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
     <col width="16.42578125" customWidth="1" style="13" min="2" max="2"/>
     <col width="17.85546875" customWidth="1" style="13" min="4" max="4"/>

--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="A">'Main Date'!$A$1046266</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -75,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -90,6 +90,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -161,17 +174,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -199,6 +201,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -208,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,34 +249,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -292,74 +314,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -672,9 +627,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="12" customWidth="1" style="13" min="2" max="2"/>
-    <col width="14" customWidth="1" style="13" min="3" max="3"/>
-    <col width="17.5703125" customWidth="1" style="13" min="4" max="5"/>
+    <col width="12" customWidth="1" style="19" min="2" max="2"/>
+    <col width="14" customWidth="1" style="19" min="3" max="3"/>
+    <col width="17.5703125" customWidth="1" style="19" min="4" max="5"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -726,1726 +681,1726 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="13" min="1" max="1"/>
-    <col width="22.7109375" customWidth="1" style="13" min="2" max="2"/>
+    <col width="20.7109375" customWidth="1" style="19" min="1" max="1"/>
+    <col width="22.7109375" customWidth="1" style="19" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75" customHeight="1" s="13" thickBot="1">
+    <row r="1" ht="75" customHeight="1" s="19" thickBot="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="77" customHeight="1" s="13">
+    <row r="2" ht="77" customHeight="1" s="19">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>FRZ001</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="77" customHeight="1" s="13">
+    <row r="3" ht="77" customHeight="1" s="19">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>FRZ002</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="77" customHeight="1" s="13">
+    <row r="4" ht="77" customHeight="1" s="19">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>FRZ003</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="77" customHeight="1" s="13">
+    <row r="5" ht="77" customHeight="1" s="19">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>FRZ004</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="77" customHeight="1" s="13">
+    <row r="6" ht="77" customHeight="1" s="19">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>FRZ005</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="77" customHeight="1" s="13">
+    <row r="7" ht="77" customHeight="1" s="19">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>FRZ006</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="77" customHeight="1" s="13">
+    <row r="8" ht="77" customHeight="1" s="19">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>FRZ007</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="77" customHeight="1" s="13">
+    <row r="9" ht="77" customHeight="1" s="19">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>FRZ008</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="77" customHeight="1" s="13">
+    <row r="10" ht="77" customHeight="1" s="19">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>FRZ009</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="77" customHeight="1" s="13">
+    <row r="11" ht="77" customHeight="1" s="19">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>FRZ010</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="77" customHeight="1" s="13">
+    <row r="12" ht="77" customHeight="1" s="19">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>FRZ011</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="77" customHeight="1" s="13">
+    <row r="13" ht="77" customHeight="1" s="19">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>FRZ012</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="77" customHeight="1" s="13">
+    <row r="14" ht="77" customHeight="1" s="19">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>FRZ013</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="77" customHeight="1" s="13">
+    <row r="15" ht="77" customHeight="1" s="19">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>FRZ014</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="77" customHeight="1" s="13">
+    <row r="16" ht="77" customHeight="1" s="19">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>FRZ015</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="77" customHeight="1" s="13">
+    <row r="17" ht="77" customHeight="1" s="19">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>FRZ016</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="77" customHeight="1" s="13">
+    <row r="18" ht="77" customHeight="1" s="19">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>FRZ017</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="77" customHeight="1" s="13">
+    <row r="19" ht="77" customHeight="1" s="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>FRZ018</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="77" customHeight="1" s="13">
+    <row r="20" ht="77" customHeight="1" s="19">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>FRZ019</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="77" customHeight="1" s="13">
+    <row r="21" ht="77" customHeight="1" s="19">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>FRZ020</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="77" customHeight="1" s="13">
+    <row r="22" ht="77" customHeight="1" s="19">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>FRZ021</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="77" customHeight="1" s="13">
+    <row r="23" ht="77" customHeight="1" s="19">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>FRZ022</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="77" customHeight="1" s="13">
+    <row r="24" ht="77" customHeight="1" s="19">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>FRZ023</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="77" customHeight="1" s="13">
+    <row r="25" ht="77" customHeight="1" s="19">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>FRZ024</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="77" customHeight="1" s="13">
+    <row r="26" ht="77" customHeight="1" s="19">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>FRZ025</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="77" customHeight="1" s="13">
+    <row r="27" ht="77" customHeight="1" s="19">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>FRZ026</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="77" customHeight="1" s="13">
+    <row r="28" ht="77" customHeight="1" s="19">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>FRZ027</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="77" customHeight="1" s="13">
+    <row r="29" ht="77" customHeight="1" s="19">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>FRZ028</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="77" customHeight="1" s="13">
+    <row r="30" ht="77" customHeight="1" s="19">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>FRZ029</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="77" customHeight="1" s="13">
+    <row r="31" ht="77" customHeight="1" s="19">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>FRZ030</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="77" customHeight="1" s="13">
+    <row r="32" ht="77" customHeight="1" s="19">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>FRZ031</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="77" customHeight="1" s="13">
+    <row r="33" ht="77" customHeight="1" s="19">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>FRZ032</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="77" customHeight="1" s="13">
+    <row r="34" ht="77" customHeight="1" s="19">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>FRZ033</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="77" customHeight="1" s="13">
+    <row r="35" ht="77" customHeight="1" s="19">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>FRZ034</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="77" customHeight="1" s="13">
+    <row r="36" ht="77" customHeight="1" s="19">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>FRZ035</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="77" customHeight="1" s="13">
+    <row r="37" ht="77" customHeight="1" s="19">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>FRZ036</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="77" customHeight="1" s="13">
+    <row r="38" ht="77" customHeight="1" s="19">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>FRZ037</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="77" customHeight="1" s="13">
+    <row r="39" ht="77" customHeight="1" s="19">
       <c r="A39" s="0" t="inlineStr">
         <is>
           <t>FRZ038</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="77" customHeight="1" s="13">
+    <row r="40" ht="77" customHeight="1" s="19">
       <c r="A40" s="0" t="inlineStr">
         <is>
           <t>FRZ039</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="77" customHeight="1" s="13">
+    <row r="41" ht="77" customHeight="1" s="19">
       <c r="A41" s="0" t="inlineStr">
         <is>
           <t>FRZ040</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="77" customHeight="1" s="13">
+    <row r="42" ht="77" customHeight="1" s="19">
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t>FRZ041</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="77" customHeight="1" s="13">
+    <row r="43" ht="77" customHeight="1" s="19">
       <c r="A43" s="0" t="inlineStr">
         <is>
           <t>FRZ042</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="77" customHeight="1" s="13">
+    <row r="44" ht="77" customHeight="1" s="19">
       <c r="A44" s="0" t="inlineStr">
         <is>
           <t>FRZ043</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="77" customHeight="1" s="13">
+    <row r="45" ht="77" customHeight="1" s="19">
       <c r="A45" s="0" t="inlineStr">
         <is>
           <t>FRZ044</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="77" customHeight="1" s="13">
+    <row r="46" ht="77" customHeight="1" s="19">
       <c r="A46" s="0" t="inlineStr">
         <is>
           <t>FRZ045</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="77" customHeight="1" s="13">
+    <row r="47" ht="77" customHeight="1" s="19">
       <c r="A47" s="0" t="inlineStr">
         <is>
           <t>FRZ046</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="77" customHeight="1" s="13">
+    <row r="48" ht="77" customHeight="1" s="19">
       <c r="A48" s="0" t="inlineStr">
         <is>
           <t>FRZ047</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="77" customHeight="1" s="13">
+    <row r="49" ht="77" customHeight="1" s="19">
       <c r="A49" s="0" t="inlineStr">
         <is>
           <t>FRZ048</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="77" customHeight="1" s="13">
+    <row r="50" ht="77" customHeight="1" s="19">
       <c r="A50" s="0" t="inlineStr">
         <is>
           <t>FRZ049</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="77" customHeight="1" s="13">
+    <row r="51" ht="77" customHeight="1" s="19">
       <c r="A51" s="0" t="inlineStr">
         <is>
           <t>FRZ050</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="77" customHeight="1" s="13">
+    <row r="52" ht="77" customHeight="1" s="19">
       <c r="A52" s="0" t="inlineStr">
         <is>
           <t>FRZ051</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="77" customHeight="1" s="13">
+    <row r="53" ht="77" customHeight="1" s="19">
       <c r="A53" s="0" t="inlineStr">
         <is>
           <t>FRZ052</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="77" customHeight="1" s="13">
+    <row r="54" ht="77" customHeight="1" s="19">
       <c r="A54" s="0" t="inlineStr">
         <is>
           <t>FRZ053</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="77" customHeight="1" s="13">
+    <row r="55" ht="77" customHeight="1" s="19">
       <c r="A55" s="0" t="inlineStr">
         <is>
           <t>FRZ054</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="77" customHeight="1" s="13">
+    <row r="56" ht="77" customHeight="1" s="19">
       <c r="A56" s="0" t="inlineStr">
         <is>
           <t>FRZ055</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="77" customHeight="1" s="13">
+    <row r="57" ht="77" customHeight="1" s="19">
       <c r="A57" s="0" t="inlineStr">
         <is>
           <t>FRZ056</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="77" customHeight="1" s="13">
+    <row r="58" ht="77" customHeight="1" s="19">
       <c r="A58" s="0" t="inlineStr">
         <is>
           <t>FRZ057</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="77" customHeight="1" s="13">
+    <row r="59" ht="77" customHeight="1" s="19">
       <c r="A59" s="0" t="inlineStr">
         <is>
           <t>FRZ058</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="77" customHeight="1" s="13">
+    <row r="60" ht="77" customHeight="1" s="19">
       <c r="A60" s="0" t="inlineStr">
         <is>
           <t>FRZ059</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="77" customHeight="1" s="13">
+    <row r="61" ht="77" customHeight="1" s="19">
       <c r="A61" s="0" t="inlineStr">
         <is>
           <t>FRZ060</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="77" customHeight="1" s="13">
+    <row r="62" ht="77" customHeight="1" s="19">
       <c r="A62" s="0" t="inlineStr">
         <is>
           <t>FRZ061</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="77" customHeight="1" s="13">
+    <row r="63" ht="77" customHeight="1" s="19">
       <c r="A63" s="0" t="inlineStr">
         <is>
           <t>FRZ062</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="77" customHeight="1" s="13">
+    <row r="64" ht="77" customHeight="1" s="19">
       <c r="A64" s="0" t="inlineStr">
         <is>
           <t>FRZ063</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="77" customHeight="1" s="13">
+    <row r="65" ht="77" customHeight="1" s="19">
       <c r="A65" s="0" t="inlineStr">
         <is>
           <t>FRZ064</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="77" customHeight="1" s="13">
+    <row r="66" ht="77" customHeight="1" s="19">
       <c r="A66" s="0" t="inlineStr">
         <is>
           <t>FRZ065</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="77" customHeight="1" s="13">
+    <row r="67" ht="77" customHeight="1" s="19">
       <c r="A67" s="0" t="inlineStr">
         <is>
           <t>FRZ066</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="77" customHeight="1" s="13">
+    <row r="68" ht="77" customHeight="1" s="19">
       <c r="A68" s="0" t="inlineStr">
         <is>
           <t>FRZ067</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="77" customHeight="1" s="13">
+    <row r="69" ht="77" customHeight="1" s="19">
       <c r="A69" s="0" t="inlineStr">
         <is>
           <t>FRT001</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="77" customHeight="1" s="13">
+    <row r="70" ht="77" customHeight="1" s="19">
       <c r="A70" s="0" t="inlineStr">
         <is>
           <t>FRT002</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="77" customHeight="1" s="13">
+    <row r="71" ht="77" customHeight="1" s="19">
       <c r="A71" s="0" t="inlineStr">
         <is>
           <t>FRT003</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="77" customHeight="1" s="13">
+    <row r="72" ht="77" customHeight="1" s="19">
       <c r="A72" s="0" t="inlineStr">
         <is>
           <t>FRT004</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="77" customHeight="1" s="13">
+    <row r="73" ht="77" customHeight="1" s="19">
       <c r="A73" s="0" t="inlineStr">
         <is>
           <t>FRT005</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="77" customHeight="1" s="13">
+    <row r="74" ht="77" customHeight="1" s="19">
       <c r="A74" s="0" t="inlineStr">
         <is>
           <t>FCA001</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="77" customHeight="1" s="13">
+    <row r="75" ht="77" customHeight="1" s="19">
       <c r="A75" s="0" t="inlineStr">
         <is>
           <t>FCA002</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="77" customHeight="1" s="13">
+    <row r="76" ht="77" customHeight="1" s="19">
       <c r="A76" s="0" t="inlineStr">
         <is>
           <t>FCA003</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="77" customHeight="1" s="13">
+    <row r="77" ht="77" customHeight="1" s="19">
       <c r="A77" s="0" t="inlineStr">
         <is>
           <t>FCA004</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="77" customHeight="1" s="13">
+    <row r="78" ht="77" customHeight="1" s="19">
       <c r="A78" s="0" t="inlineStr">
         <is>
           <t>FCA005</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="77" customHeight="1" s="13">
+    <row r="79" ht="77" customHeight="1" s="19">
       <c r="A79" s="0" t="inlineStr">
         <is>
           <t>FCA006</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="77" customHeight="1" s="13">
+    <row r="80" ht="77" customHeight="1" s="19">
       <c r="A80" s="0" t="inlineStr">
         <is>
           <t>FCA007</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="77" customHeight="1" s="13">
+    <row r="81" ht="77" customHeight="1" s="19">
       <c r="A81" s="0" t="inlineStr">
         <is>
           <t>FCA008</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="77" customHeight="1" s="13">
+    <row r="82" ht="77" customHeight="1" s="19">
       <c r="A82" s="0" t="inlineStr">
         <is>
           <t>FCA009</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="77" customHeight="1" s="13">
+    <row r="83" ht="77" customHeight="1" s="19">
       <c r="A83" s="0" t="inlineStr">
         <is>
           <t>FCA010</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="77" customHeight="1" s="13">
+    <row r="84" ht="77" customHeight="1" s="19">
       <c r="A84" s="0" t="inlineStr">
         <is>
           <t>FCC001</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="77" customHeight="1" s="13">
+    <row r="85" ht="77" customHeight="1" s="19">
       <c r="A85" s="0" t="inlineStr">
         <is>
           <t>FCC002</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="77" customHeight="1" s="13">
+    <row r="86" ht="77" customHeight="1" s="19">
       <c r="A86" s="0" t="inlineStr">
         <is>
           <t>FCC003</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="77" customHeight="1" s="13">
+    <row r="87" ht="77" customHeight="1" s="19">
       <c r="A87" s="0" t="inlineStr">
         <is>
           <t>FCC004</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="77" customHeight="1" s="13">
+    <row r="88" ht="77" customHeight="1" s="19">
       <c r="A88" s="0" t="inlineStr">
         <is>
           <t>FCC005</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="77" customHeight="1" s="13">
+    <row r="89" ht="77" customHeight="1" s="19">
       <c r="A89" s="0" t="inlineStr">
         <is>
           <t>FCC006</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="77" customHeight="1" s="13">
+    <row r="90" ht="77" customHeight="1" s="19">
       <c r="A90" s="0" t="inlineStr">
         <is>
           <t>FCC007</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="77" customHeight="1" s="13">
+    <row r="91" ht="77" customHeight="1" s="19">
       <c r="A91" s="0" t="inlineStr">
         <is>
           <t>FCC008</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="77" customHeight="1" s="13">
+    <row r="92" ht="77" customHeight="1" s="19">
       <c r="A92" s="0" t="inlineStr">
         <is>
           <t>FCC009</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="77" customHeight="1" s="13">
+    <row r="93" ht="77" customHeight="1" s="19">
       <c r="A93" s="0" t="inlineStr">
         <is>
           <t>FCC010</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="77" customHeight="1" s="13">
+    <row r="94" ht="77" customHeight="1" s="19">
       <c r="A94" s="0" t="inlineStr">
         <is>
           <t>FCC011</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="77" customHeight="1" s="13">
+    <row r="95" ht="77" customHeight="1" s="19">
       <c r="A95" s="0" t="inlineStr">
         <is>
           <t>FCC012</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="77" customHeight="1" s="13">
+    <row r="96" ht="77" customHeight="1" s="19">
       <c r="A96" s="0" t="inlineStr">
         <is>
           <t>FCF001</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="77" customHeight="1" s="13">
+    <row r="97" ht="77" customHeight="1" s="19">
       <c r="A97" s="0" t="inlineStr">
         <is>
           <t>FCF002</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="77" customHeight="1" s="13">
+    <row r="98" ht="77" customHeight="1" s="19">
       <c r="A98" s="0" t="inlineStr">
         <is>
           <t>FCF003</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="77" customHeight="1" s="13">
+    <row r="99" ht="77" customHeight="1" s="19">
       <c r="A99" s="0" t="inlineStr">
         <is>
           <t>FCF004</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="77" customHeight="1" s="13">
+    <row r="100" ht="77" customHeight="1" s="19">
       <c r="A100" s="0" t="inlineStr">
         <is>
           <t>FCF005</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="77" customHeight="1" s="13">
+    <row r="101" ht="77" customHeight="1" s="19">
       <c r="A101" s="0" t="inlineStr">
         <is>
           <t>FCF006</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="77" customHeight="1" s="13">
+    <row r="102" ht="77" customHeight="1" s="19">
       <c r="A102" s="0" t="inlineStr">
         <is>
           <t>FCF007</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="77" customHeight="1" s="13">
+    <row r="103" ht="77" customHeight="1" s="19">
       <c r="A103" s="0" t="inlineStr">
         <is>
           <t>FCF008</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="77" customHeight="1" s="13">
+    <row r="104" ht="77" customHeight="1" s="19">
       <c r="A104" s="0" t="inlineStr">
         <is>
           <t>FCF009</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="77" customHeight="1" s="13">
+    <row r="105" ht="77" customHeight="1" s="19">
       <c r="A105" s="0" t="inlineStr">
         <is>
           <t>FCF010</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="77" customHeight="1" s="13">
+    <row r="106" ht="77" customHeight="1" s="19">
       <c r="A106" s="0" t="inlineStr">
         <is>
           <t>FCF011</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="77" customHeight="1" s="13">
+    <row r="107" ht="77" customHeight="1" s="19">
       <c r="A107" s="0" t="inlineStr">
         <is>
           <t>FCF012</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="77" customHeight="1" s="13">
+    <row r="108" ht="77" customHeight="1" s="19">
       <c r="A108" s="0" t="inlineStr">
         <is>
           <t>FCF013</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="77" customHeight="1" s="13">
+    <row r="109" ht="77" customHeight="1" s="19">
       <c r="A109" s="0" t="inlineStr">
         <is>
           <t>FCF014</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="77" customHeight="1" s="13">
+    <row r="110" ht="77" customHeight="1" s="19">
       <c r="A110" s="0" t="inlineStr">
         <is>
           <t>FCF015</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="77" customHeight="1" s="13">
+    <row r="111" ht="77" customHeight="1" s="19">
       <c r="A111" s="0" t="inlineStr">
         <is>
           <t>FCP001</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="77" customHeight="1" s="13">
+    <row r="112" ht="77" customHeight="1" s="19">
       <c r="A112" s="0" t="inlineStr">
         <is>
           <t>FCP002</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="77" customHeight="1" s="13">
+    <row r="113" ht="77" customHeight="1" s="19">
       <c r="A113" s="0" t="inlineStr">
         <is>
           <t>FCP003</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="77" customHeight="1" s="13">
+    <row r="114" ht="77" customHeight="1" s="19">
       <c r="A114" s="0" t="inlineStr">
         <is>
           <t>FCP004</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="77" customHeight="1" s="13">
+    <row r="115" ht="77" customHeight="1" s="19">
       <c r="A115" s="0" t="inlineStr">
         <is>
           <t>FCP005</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="77" customHeight="1" s="13">
+    <row r="116" ht="77" customHeight="1" s="19">
       <c r="A116" s="0" t="inlineStr">
         <is>
           <t>FCP006</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="77" customHeight="1" s="13">
+    <row r="117" ht="77" customHeight="1" s="19">
       <c r="A117" s="0" t="inlineStr">
         <is>
           <t>FCP007</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="77" customHeight="1" s="13">
+    <row r="118" ht="77" customHeight="1" s="19">
       <c r="A118" s="0" t="inlineStr">
         <is>
           <t>FCP008</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="77" customHeight="1" s="13">
+    <row r="119" ht="77" customHeight="1" s="19">
       <c r="A119" s="0" t="inlineStr">
         <is>
           <t>FCP009</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="77" customHeight="1" s="13">
+    <row r="120" ht="77" customHeight="1" s="19">
       <c r="A120" s="0" t="inlineStr">
         <is>
           <t>FCP010</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="77" customHeight="1" s="13">
+    <row r="121" ht="77" customHeight="1" s="19">
       <c r="A121" s="0" t="inlineStr">
         <is>
           <t>FCP011</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="77" customHeight="1" s="13">
+    <row r="122" ht="77" customHeight="1" s="19">
       <c r="A122" s="0" t="inlineStr">
         <is>
           <t>FCP012</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="77" customHeight="1" s="13">
+    <row r="123" ht="77" customHeight="1" s="19">
       <c r="A123" s="0" t="inlineStr">
         <is>
           <t>FCP013</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="77" customHeight="1" s="13">
+    <row r="124" ht="77" customHeight="1" s="19">
       <c r="A124" s="0" t="inlineStr">
         <is>
           <t>FCP014</t>
         </is>
       </c>
     </row>
-    <row r="125" ht="77" customHeight="1" s="13">
+    <row r="125" ht="77" customHeight="1" s="19">
       <c r="A125" s="0" t="inlineStr">
         <is>
           <t>FCP015</t>
         </is>
       </c>
     </row>
-    <row r="126" ht="77" customHeight="1" s="13">
+    <row r="126" ht="77" customHeight="1" s="19">
       <c r="A126" s="0" t="inlineStr">
         <is>
           <t>FCP016</t>
         </is>
       </c>
     </row>
-    <row r="127" ht="77" customHeight="1" s="13">
+    <row r="127" ht="77" customHeight="1" s="19">
       <c r="A127" s="0" t="inlineStr">
         <is>
           <t>FCP017</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="77" customHeight="1" s="13">
+    <row r="128" ht="77" customHeight="1" s="19">
       <c r="A128" s="0" t="inlineStr">
         <is>
           <t>FCP018</t>
         </is>
       </c>
     </row>
-    <row r="129" ht="77" customHeight="1" s="13">
+    <row r="129" ht="77" customHeight="1" s="19">
       <c r="A129" s="0" t="inlineStr">
         <is>
           <t>FCP019</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="77" customHeight="1" s="13">
+    <row r="130" ht="77" customHeight="1" s="19">
       <c r="A130" s="0" t="inlineStr">
         <is>
           <t>FCP020</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="77" customHeight="1" s="13">
+    <row r="131" ht="77" customHeight="1" s="19">
       <c r="A131" s="0" t="inlineStr">
         <is>
           <t>FCP021</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="77" customHeight="1" s="13">
+    <row r="132" ht="77" customHeight="1" s="19">
       <c r="A132" s="0" t="inlineStr">
         <is>
           <t>FIU001</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="77" customHeight="1" s="13">
+    <row r="133" ht="77" customHeight="1" s="19">
       <c r="A133" s="0" t="inlineStr">
         <is>
           <t>FIU002</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="77" customHeight="1" s="13">
+    <row r="134" ht="77" customHeight="1" s="19">
       <c r="A134" s="0" t="inlineStr">
         <is>
           <t>FIU003</t>
         </is>
       </c>
     </row>
-    <row r="135" ht="77" customHeight="1" s="13">
+    <row r="135" ht="77" customHeight="1" s="19">
       <c r="A135" s="0" t="inlineStr">
         <is>
           <t>FIM001</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="77" customHeight="1" s="13">
+    <row r="136" ht="77" customHeight="1" s="19">
       <c r="A136" s="0" t="inlineStr">
         <is>
           <t>FIM002</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="77" customHeight="1" s="13">
+    <row r="137" ht="77" customHeight="1" s="19">
       <c r="A137" s="0" t="inlineStr">
         <is>
           <t>FIM003</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="77" customHeight="1" s="13">
+    <row r="138" ht="77" customHeight="1" s="19">
       <c r="A138" s="0" t="inlineStr">
         <is>
           <t>FIM004</t>
         </is>
       </c>
     </row>
-    <row r="139" ht="77" customHeight="1" s="13">
+    <row r="139" ht="77" customHeight="1" s="19">
       <c r="A139" s="0" t="inlineStr">
         <is>
           <t>FIM005</t>
         </is>
       </c>
     </row>
-    <row r="140" ht="77" customHeight="1" s="13">
+    <row r="140" ht="77" customHeight="1" s="19">
       <c r="A140" s="0" t="inlineStr">
         <is>
           <t>FFZ001</t>
         </is>
       </c>
     </row>
-    <row r="141" ht="77" customHeight="1" s="13">
+    <row r="141" ht="77" customHeight="1" s="19">
       <c r="A141" s="0" t="inlineStr">
         <is>
           <t>FFZ002</t>
         </is>
       </c>
     </row>
-    <row r="142" ht="77" customHeight="1" s="13">
+    <row r="142" ht="77" customHeight="1" s="19">
       <c r="A142" s="0" t="inlineStr">
         <is>
           <t>FDZ001</t>
         </is>
       </c>
     </row>
-    <row r="143" ht="77" customHeight="1" s="13">
+    <row r="143" ht="77" customHeight="1" s="19">
       <c r="A143" s="0" t="inlineStr">
         <is>
           <t>FDZ002</t>
         </is>
       </c>
     </row>
-    <row r="144" ht="77" customHeight="1" s="13">
+    <row r="144" ht="77" customHeight="1" s="19">
       <c r="A144" s="0" t="inlineStr">
         <is>
           <t>FDZ003</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="77" customHeight="1" s="13">
+    <row r="145" ht="77" customHeight="1" s="19">
       <c r="A145" s="0" t="inlineStr">
         <is>
           <t>FDZ004</t>
         </is>
       </c>
     </row>
-    <row r="146" ht="77" customHeight="1" s="13">
+    <row r="146" ht="77" customHeight="1" s="19">
       <c r="A146" s="0" t="inlineStr">
         <is>
           <t>FDZ005</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="77" customHeight="1" s="13">
+    <row r="147" ht="77" customHeight="1" s="19">
       <c r="A147" s="0" t="inlineStr">
         <is>
           <t>FDZ006</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="77" customHeight="1" s="13">
+    <row r="148" ht="77" customHeight="1" s="19">
       <c r="A148" s="0" t="inlineStr">
         <is>
           <t>FDZ007</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="77" customHeight="1" s="13">
+    <row r="149" ht="77" customHeight="1" s="19">
       <c r="A149" s="0" t="inlineStr">
         <is>
           <t>FDZ008</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="77" customHeight="1" s="13">
+    <row r="150" ht="77" customHeight="1" s="19">
       <c r="A150" s="0" t="inlineStr">
         <is>
           <t>FDZ009</t>
         </is>
       </c>
     </row>
-    <row r="151" ht="77" customHeight="1" s="13">
+    <row r="151" ht="77" customHeight="1" s="19">
       <c r="A151" s="0" t="inlineStr">
         <is>
           <t>FDZ010</t>
         </is>
       </c>
     </row>
-    <row r="152" ht="77" customHeight="1" s="13">
+    <row r="152" ht="77" customHeight="1" s="19">
       <c r="A152" s="0" t="inlineStr">
         <is>
           <t>FDZ011</t>
         </is>
       </c>
     </row>
-    <row r="153" ht="77" customHeight="1" s="13">
+    <row r="153" ht="77" customHeight="1" s="19">
       <c r="A153" s="0" t="inlineStr">
         <is>
           <t>FDZ012</t>
         </is>
       </c>
     </row>
-    <row r="154" ht="77" customHeight="1" s="13">
+    <row r="154" ht="77" customHeight="1" s="19">
       <c r="A154" s="0" t="inlineStr">
         <is>
           <t>FDZ013</t>
         </is>
       </c>
     </row>
-    <row r="155" ht="77" customHeight="1" s="13">
+    <row r="155" ht="77" customHeight="1" s="19">
       <c r="A155" s="0" t="inlineStr">
         <is>
           <t>FTN001</t>
         </is>
       </c>
     </row>
-    <row r="156" ht="77" customHeight="1" s="13">
+    <row r="156" ht="77" customHeight="1" s="19">
       <c r="A156" s="0" t="inlineStr">
         <is>
           <t>FTP002</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="77" customHeight="1" s="13">
+    <row r="157" ht="77" customHeight="1" s="19">
       <c r="A157" s="0" t="inlineStr">
         <is>
           <t>FTN003</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="77" customHeight="1" s="13">
+    <row r="158" ht="77" customHeight="1" s="19">
       <c r="A158" s="0" t="inlineStr">
         <is>
           <t>FTP004</t>
         </is>
       </c>
     </row>
-    <row r="159" ht="77" customHeight="1" s="13">
+    <row r="159" ht="77" customHeight="1" s="19">
       <c r="A159" s="0" t="inlineStr">
         <is>
           <t>FTN005</t>
         </is>
       </c>
     </row>
-    <row r="160" ht="77" customHeight="1" s="13">
+    <row r="160" ht="77" customHeight="1" s="19">
       <c r="A160" s="0" t="inlineStr">
         <is>
           <t>FTP006</t>
         </is>
       </c>
     </row>
-    <row r="161" ht="77" customHeight="1" s="13">
+    <row r="161" ht="77" customHeight="1" s="19">
       <c r="A161" s="0" t="inlineStr">
         <is>
           <t>FTN007</t>
         </is>
       </c>
     </row>
-    <row r="162" ht="77" customHeight="1" s="13">
+    <row r="162" ht="77" customHeight="1" s="19">
       <c r="A162" s="0" t="inlineStr">
         <is>
           <t>FTN008</t>
         </is>
       </c>
     </row>
-    <row r="163" ht="77" customHeight="1" s="13">
+    <row r="163" ht="77" customHeight="1" s="19">
       <c r="A163" s="0" t="inlineStr">
         <is>
           <t>FTP009</t>
         </is>
       </c>
     </row>
-    <row r="164" ht="77" customHeight="1" s="13">
+    <row r="164" ht="77" customHeight="1" s="19">
       <c r="A164" s="0" t="inlineStr">
         <is>
           <t>FTN010</t>
         </is>
       </c>
     </row>
-    <row r="165" ht="77" customHeight="1" s="13">
+    <row r="165" ht="77" customHeight="1" s="19">
       <c r="A165" s="0" t="inlineStr">
         <is>
           <t>FTP011</t>
         </is>
       </c>
     </row>
-    <row r="166" ht="77" customHeight="1" s="13">
+    <row r="166" ht="77" customHeight="1" s="19">
       <c r="A166" s="0" t="inlineStr">
         <is>
           <t>FTP012</t>
         </is>
       </c>
     </row>
-    <row r="167" ht="77" customHeight="1" s="13">
+    <row r="167" ht="77" customHeight="1" s="19">
       <c r="A167" s="0" t="inlineStr">
         <is>
           <t>FTN013</t>
         </is>
       </c>
     </row>
-    <row r="168" ht="77" customHeight="1" s="13">
+    <row r="168" ht="77" customHeight="1" s="19">
       <c r="A168" s="0" t="inlineStr">
         <is>
           <t>FTP014</t>
         </is>
       </c>
     </row>
-    <row r="169" ht="77" customHeight="1" s="13">
+    <row r="169" ht="77" customHeight="1" s="19">
       <c r="A169" s="0" t="inlineStr">
         <is>
           <t>FTN015</t>
         </is>
       </c>
     </row>
-    <row r="170" ht="77" customHeight="1" s="13">
+    <row r="170" ht="77" customHeight="1" s="19">
       <c r="A170" s="0" t="inlineStr">
         <is>
           <t>FTP016</t>
         </is>
       </c>
     </row>
-    <row r="171" ht="77" customHeight="1" s="13">
+    <row r="171" ht="77" customHeight="1" s="19">
       <c r="A171" s="0" t="inlineStr">
         <is>
           <t>FTN017</t>
         </is>
       </c>
     </row>
-    <row r="172" ht="77" customHeight="1" s="13">
+    <row r="172" ht="77" customHeight="1" s="19">
       <c r="A172" s="0" t="inlineStr">
         <is>
           <t>FTP018</t>
         </is>
       </c>
     </row>
-    <row r="173" ht="77" customHeight="1" s="13">
+    <row r="173" ht="77" customHeight="1" s="19">
       <c r="A173" s="0" t="inlineStr">
         <is>
           <t>FTN019</t>
         </is>
       </c>
     </row>
-    <row r="174" ht="77" customHeight="1" s="13">
+    <row r="174" ht="77" customHeight="1" s="19">
       <c r="A174" s="0" t="inlineStr">
         <is>
           <t>FTP020</t>
         </is>
       </c>
     </row>
-    <row r="175" ht="77" customHeight="1" s="13">
+    <row r="175" ht="77" customHeight="1" s="19">
       <c r="A175" s="0" t="inlineStr">
         <is>
           <t>FTP021</t>
         </is>
       </c>
     </row>
-    <row r="176" ht="77" customHeight="1" s="13">
+    <row r="176" ht="77" customHeight="1" s="19">
       <c r="A176" s="0" t="inlineStr">
         <is>
           <t>FTN022</t>
         </is>
       </c>
     </row>
-    <row r="177" ht="77" customHeight="1" s="13">
+    <row r="177" ht="77" customHeight="1" s="19">
       <c r="A177" s="0" t="inlineStr">
         <is>
           <t>FTN023</t>
         </is>
       </c>
     </row>
-    <row r="178" ht="77" customHeight="1" s="13">
+    <row r="178" ht="77" customHeight="1" s="19">
       <c r="A178" s="0" t="inlineStr">
         <is>
           <t>FTP024</t>
         </is>
       </c>
     </row>
-    <row r="179" ht="77" customHeight="1" s="13">
+    <row r="179" ht="77" customHeight="1" s="19">
       <c r="A179" s="0" t="inlineStr">
         <is>
           <t>FTM001</t>
         </is>
       </c>
     </row>
-    <row r="180" ht="77" customHeight="1" s="13">
+    <row r="180" ht="77" customHeight="1" s="19">
       <c r="A180" s="0" t="inlineStr">
         <is>
           <t>FTM002</t>
         </is>
       </c>
     </row>
-    <row r="181" ht="77" customHeight="1" s="13">
+    <row r="181" ht="77" customHeight="1" s="19">
       <c r="A181" s="0" t="inlineStr">
         <is>
           <t>FTM003</t>
         </is>
       </c>
     </row>
-    <row r="182" ht="77" customHeight="1" s="13">
+    <row r="182" ht="77" customHeight="1" s="19">
       <c r="A182" s="0" t="inlineStr">
         <is>
           <t>FTM004</t>
         </is>
       </c>
     </row>
-    <row r="183" ht="77" customHeight="1" s="13">
+    <row r="183" ht="77" customHeight="1" s="19">
       <c r="A183" s="0" t="inlineStr">
         <is>
           <t>FTM005</t>
         </is>
       </c>
     </row>
-    <row r="184" ht="77" customHeight="1" s="13">
+    <row r="184" ht="77" customHeight="1" s="19">
       <c r="A184" s="0" t="inlineStr">
         <is>
           <t>FTM006</t>
         </is>
       </c>
     </row>
-    <row r="185" ht="77" customHeight="1" s="13">
+    <row r="185" ht="77" customHeight="1" s="19">
       <c r="A185" s="0" t="inlineStr">
         <is>
           <t>FTM007</t>
         </is>
       </c>
     </row>
-    <row r="186" ht="77" customHeight="1" s="13">
+    <row r="186" ht="77" customHeight="1" s="19">
       <c r="A186" s="0" t="inlineStr">
         <is>
           <t>FLR001</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="77" customHeight="1" s="13">
+    <row r="187" ht="77" customHeight="1" s="19">
       <c r="A187" s="0" t="inlineStr">
         <is>
           <t>FLG002</t>
         </is>
       </c>
     </row>
-    <row r="188" ht="77" customHeight="1" s="13">
+    <row r="188" ht="77" customHeight="1" s="19">
       <c r="A188" s="0" t="inlineStr">
         <is>
           <t>FLY003</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="77" customHeight="1" s="13">
+    <row r="189" ht="77" customHeight="1" s="19">
       <c r="A189" s="0" t="inlineStr">
         <is>
           <t>FLO004</t>
         </is>
       </c>
     </row>
-    <row r="190" ht="77" customHeight="1" s="13">
+    <row r="190" ht="77" customHeight="1" s="19">
       <c r="A190" s="0" t="inlineStr">
         <is>
           <t>FLY005</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="77" customHeight="1" s="13">
+    <row r="191" ht="77" customHeight="1" s="19">
       <c r="A191" s="0" t="inlineStr">
         <is>
           <t>FLO006</t>
         </is>
       </c>
     </row>
-    <row r="192" ht="77" customHeight="1" s="13">
+    <row r="192" ht="77" customHeight="1" s="19">
       <c r="A192" s="0" t="inlineStr">
         <is>
           <t>FLG007</t>
         </is>
       </c>
     </row>
-    <row r="193" ht="77" customHeight="1" s="13">
+    <row r="193" ht="77" customHeight="1" s="19">
       <c r="A193" s="0" t="inlineStr">
         <is>
           <t>FLR008</t>
         </is>
       </c>
     </row>
-    <row r="194" ht="77" customHeight="1" s="13">
+    <row r="194" ht="77" customHeight="1" s="19">
       <c r="A194" s="0" t="inlineStr">
         <is>
           <t>FLZ009</t>
         </is>
       </c>
     </row>
-    <row r="195" ht="77" customHeight="1" s="13">
+    <row r="195" ht="77" customHeight="1" s="19">
       <c r="A195" s="0" t="inlineStr">
         <is>
           <t>FLB010</t>
         </is>
       </c>
     </row>
-    <row r="196" ht="77" customHeight="1" s="13">
+    <row r="196" ht="77" customHeight="1" s="19">
       <c r="A196" s="0" t="inlineStr">
         <is>
           <t>FLG011</t>
         </is>
       </c>
     </row>
-    <row r="197" ht="77" customHeight="1" s="13">
+    <row r="197" ht="77" customHeight="1" s="19">
       <c r="A197" s="0" t="inlineStr">
         <is>
           <t>FLY012</t>
         </is>
       </c>
     </row>
-    <row r="198" ht="77" customHeight="1" s="13">
+    <row r="198" ht="77" customHeight="1" s="19">
       <c r="A198" s="0" t="inlineStr">
         <is>
           <t>FLR013</t>
         </is>
       </c>
     </row>
-    <row r="199" ht="77" customHeight="1" s="13">
+    <row r="199" ht="77" customHeight="1" s="19">
       <c r="A199" s="0" t="inlineStr">
         <is>
           <t>FLW014</t>
         </is>
       </c>
     </row>
-    <row r="200" ht="77" customHeight="1" s="13">
+    <row r="200" ht="77" customHeight="1" s="19">
       <c r="A200" s="0" t="inlineStr">
         <is>
           <t>FLW015</t>
         </is>
       </c>
     </row>
-    <row r="201" ht="77" customHeight="1" s="13">
+    <row r="201" ht="77" customHeight="1" s="19">
       <c r="A201" s="0" t="inlineStr">
         <is>
           <t>FLW016</t>
         </is>
       </c>
     </row>
-    <row r="202" ht="77" customHeight="1" s="13">
+    <row r="202" ht="77" customHeight="1" s="19">
       <c r="A202" s="0" t="inlineStr">
         <is>
           <t>FLG017</t>
         </is>
       </c>
     </row>
-    <row r="203" ht="77" customHeight="1" s="13">
+    <row r="203" ht="77" customHeight="1" s="19">
       <c r="A203" s="0" t="inlineStr">
         <is>
           <t>FLY018</t>
         </is>
       </c>
     </row>
-    <row r="204" ht="77" customHeight="1" s="13">
+    <row r="204" ht="77" customHeight="1" s="19">
       <c r="A204" s="0" t="inlineStr">
         <is>
           <t>FLR019</t>
         </is>
       </c>
     </row>
-    <row r="205" ht="77" customHeight="1" s="13">
+    <row r="205" ht="77" customHeight="1" s="19">
       <c r="A205" s="0" t="inlineStr">
         <is>
           <t>FLZ020</t>
         </is>
       </c>
     </row>
-    <row r="206" ht="77" customHeight="1" s="13">
+    <row r="206" ht="77" customHeight="1" s="19">
       <c r="A206" s="0" t="inlineStr">
         <is>
           <t>FLZ021</t>
         </is>
       </c>
     </row>
-    <row r="207" ht="77" customHeight="1" s="13">
+    <row r="207" ht="77" customHeight="1" s="19">
       <c r="A207" s="0" t="inlineStr">
         <is>
           <t>FLR022</t>
         </is>
       </c>
     </row>
-    <row r="208" ht="77" customHeight="1" s="13">
+    <row r="208" ht="77" customHeight="1" s="19">
       <c r="A208" s="0" t="inlineStr">
         <is>
           <t>FLR023</t>
         </is>
       </c>
     </row>
-    <row r="209" ht="77" customHeight="1" s="13">
+    <row r="209" ht="77" customHeight="1" s="19">
       <c r="A209" s="0" t="inlineStr">
         <is>
           <t>FLR024</t>
         </is>
       </c>
     </row>
-    <row r="210" ht="77" customHeight="1" s="13">
+    <row r="210" ht="77" customHeight="1" s="19">
       <c r="A210" s="0" t="inlineStr">
         <is>
           <t>FLZ025</t>
         </is>
       </c>
     </row>
-    <row r="211" ht="77" customHeight="1" s="13">
+    <row r="211" ht="77" customHeight="1" s="19">
       <c r="A211" s="0" t="inlineStr">
         <is>
           <t>FLZ026</t>
         </is>
       </c>
     </row>
-    <row r="212" ht="77" customHeight="1" s="13">
+    <row r="212" ht="77" customHeight="1" s="19">
       <c r="A212" s="0" t="inlineStr">
         <is>
           <t>FLZ027</t>
         </is>
       </c>
     </row>
-    <row r="213" ht="77" customHeight="1" s="13">
+    <row r="213" ht="77" customHeight="1" s="19">
       <c r="A213" s="0" t="inlineStr">
         <is>
           <t>FLZ028</t>
         </is>
       </c>
     </row>
-    <row r="214" ht="77" customHeight="1" s="13">
+    <row r="214" ht="77" customHeight="1" s="19">
       <c r="A214" s="0" t="inlineStr">
         <is>
           <t>FLZ029</t>
         </is>
       </c>
     </row>
-    <row r="215" ht="77" customHeight="1" s="13">
+    <row r="215" ht="77" customHeight="1" s="19">
       <c r="A215" s="0" t="inlineStr">
         <is>
           <t>FLZ030</t>
         </is>
       </c>
     </row>
-    <row r="216" ht="77" customHeight="1" s="13">
+    <row r="216" ht="77" customHeight="1" s="19">
       <c r="A216" s="0" t="inlineStr">
         <is>
           <t>FLZ031</t>
         </is>
       </c>
     </row>
-    <row r="217" ht="77" customHeight="1" s="13">
+    <row r="217" ht="77" customHeight="1" s="19">
       <c r="A217" s="0" t="inlineStr">
         <is>
           <t>FLZ032</t>
         </is>
       </c>
     </row>
-    <row r="218" ht="77" customHeight="1" s="13">
+    <row r="218" ht="77" customHeight="1" s="19">
       <c r="A218" s="0" t="inlineStr">
         <is>
           <t>FLZ033</t>
         </is>
       </c>
     </row>
-    <row r="219" ht="77" customHeight="1" s="13">
+    <row r="219" ht="77" customHeight="1" s="19">
       <c r="A219" s="0" t="inlineStr">
         <is>
           <t>FLZ034</t>
         </is>
       </c>
     </row>
-    <row r="220" ht="77" customHeight="1" s="13">
+    <row r="220" ht="77" customHeight="1" s="19">
       <c r="A220" s="0" t="inlineStr">
         <is>
           <t>FLZ035</t>
         </is>
       </c>
     </row>
-    <row r="221" ht="77" customHeight="1" s="13">
+    <row r="221" ht="77" customHeight="1" s="19">
       <c r="A221" s="0" t="inlineStr">
         <is>
           <t>FLZ036</t>
         </is>
       </c>
     </row>
-    <row r="222" ht="77" customHeight="1" s="13">
+    <row r="222" ht="77" customHeight="1" s="19">
       <c r="A222" s="0" t="inlineStr">
         <is>
           <t>FLZ037</t>
         </is>
       </c>
     </row>
-    <row r="223" ht="77" customHeight="1" s="13">
+    <row r="223" ht="77" customHeight="1" s="19">
       <c r="A223" s="0" t="inlineStr">
         <is>
           <t>FLZ038</t>
         </is>
       </c>
     </row>
-    <row r="224" ht="77" customHeight="1" s="13">
+    <row r="224" ht="77" customHeight="1" s="19">
       <c r="A224" s="0" t="inlineStr">
         <is>
           <t>FLZ039</t>
         </is>
       </c>
     </row>
-    <row r="225" ht="77" customHeight="1" s="13">
+    <row r="225" ht="77" customHeight="1" s="19">
       <c r="A225" s="0" t="inlineStr">
         <is>
           <t>FLZ040</t>
         </is>
       </c>
     </row>
-    <row r="226" ht="77" customHeight="1" s="13">
+    <row r="226" ht="77" customHeight="1" s="19">
       <c r="A226" s="0" t="inlineStr">
         <is>
           <t>FLZ041</t>
         </is>
       </c>
     </row>
-    <row r="227" ht="77" customHeight="1" s="13">
+    <row r="227" ht="77" customHeight="1" s="19">
       <c r="A227" s="0" t="inlineStr">
         <is>
           <t>FLZ042</t>
         </is>
       </c>
     </row>
-    <row r="228" ht="77" customHeight="1" s="13">
+    <row r="228" ht="77" customHeight="1" s="19">
       <c r="A228" s="0" t="inlineStr">
         <is>
           <t>FLZ043</t>
         </is>
       </c>
     </row>
-    <row r="229" ht="77" customHeight="1" s="13">
+    <row r="229" ht="77" customHeight="1" s="19">
       <c r="A229" s="0" t="inlineStr">
         <is>
           <t>FLW044</t>
         </is>
       </c>
     </row>
-    <row r="230" ht="77" customHeight="1" s="13">
+    <row r="230" ht="77" customHeight="1" s="19">
       <c r="A230" s="0" t="inlineStr">
         <is>
           <t>FLW045</t>
         </is>
       </c>
     </row>
-    <row r="231" ht="77" customHeight="1" s="13">
+    <row r="231" ht="77" customHeight="1" s="19">
       <c r="A231" s="0" t="inlineStr">
         <is>
           <t>FLW046</t>
         </is>
       </c>
     </row>
-    <row r="232" ht="77" customHeight="1" s="13">
+    <row r="232" ht="77" customHeight="1" s="19">
       <c r="A232" s="0" t="inlineStr">
         <is>
           <t>FLZ047</t>
         </is>
       </c>
     </row>
-    <row r="233" ht="77" customHeight="1" s="13">
+    <row r="233" ht="77" customHeight="1" s="19">
       <c r="A233" s="0" t="inlineStr">
         <is>
           <t>FLZ048</t>
         </is>
       </c>
     </row>
-    <row r="234" ht="77" customHeight="1" s="13">
+    <row r="234" ht="77" customHeight="1" s="19">
       <c r="A234" s="0" t="inlineStr">
         <is>
           <t>FLZ049</t>
         </is>
       </c>
     </row>
-    <row r="235" ht="77" customHeight="1" s="13">
+    <row r="235" ht="77" customHeight="1" s="19">
       <c r="A235" s="0" t="inlineStr">
         <is>
           <t>FLZ050</t>
         </is>
       </c>
     </row>
-    <row r="236" ht="77" customHeight="1" s="13">
+    <row r="236" ht="77" customHeight="1" s="19">
       <c r="A236" s="0" t="inlineStr">
         <is>
           <t>FLZ051</t>
         </is>
       </c>
     </row>
-    <row r="237" ht="77" customHeight="1" s="13">
+    <row r="237" ht="77" customHeight="1" s="19">
       <c r="A237" s="0" t="inlineStr">
         <is>
           <t>FLZ052</t>
         </is>
       </c>
     </row>
-    <row r="238" ht="77" customHeight="1" s="13">
+    <row r="238" ht="77" customHeight="1" s="19">
       <c r="A238" s="0" t="inlineStr">
         <is>
           <t>FLZ053</t>
         </is>
       </c>
     </row>
-    <row r="239" ht="77" customHeight="1" s="13">
+    <row r="239" ht="77" customHeight="1" s="19">
       <c r="A239" s="0" t="inlineStr">
         <is>
           <t>TMR001</t>
         </is>
       </c>
     </row>
-    <row r="240" ht="77" customHeight="1" s="13">
+    <row r="240" ht="77" customHeight="1" s="19">
       <c r="A240" s="0" t="inlineStr">
         <is>
           <t>TMR002</t>
         </is>
       </c>
     </row>
-    <row r="241" ht="77" customHeight="1" s="13">
+    <row r="241" ht="77" customHeight="1" s="19">
       <c r="A241" s="0" t="inlineStr">
         <is>
           <t>TMR003</t>
         </is>
       </c>
     </row>
-    <row r="242" ht="77" customHeight="1" s="13">
+    <row r="242" ht="77" customHeight="1" s="19">
       <c r="A242" s="0" t="inlineStr">
         <is>
           <t>TMR004</t>
         </is>
       </c>
     </row>
-    <row r="243" ht="77" customHeight="1" s="13">
+    <row r="243" ht="77" customHeight="1" s="19">
       <c r="A243" s="0" t="inlineStr">
         <is>
           <t>TMR005</t>
         </is>
       </c>
     </row>
-    <row r="244" ht="77" customHeight="1" s="13">
+    <row r="244" ht="77" customHeight="1" s="19">
       <c r="A244" s="0" t="inlineStr">
         <is>
           <t>TMR006</t>
         </is>
       </c>
     </row>
-    <row r="245" ht="77" customHeight="1" s="13">
+    <row r="245" ht="77" customHeight="1" s="19">
       <c r="A245" s="0" t="inlineStr">
         <is>
           <t>TMR007</t>
         </is>
       </c>
     </row>
-    <row r="246" ht="77" customHeight="1" s="13">
+    <row r="246" ht="77" customHeight="1" s="19">
       <c r="A246" s="0" t="inlineStr">
         <is>
           <t>TM</t>
@@ -2466,26 +2421,26 @@
   </sheetPr>
   <dimension ref="A1:Q1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="66" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244:B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col width="49.42578125" customWidth="1" style="13" min="2" max="2"/>
-    <col width="25" customWidth="1" style="13" min="3" max="3"/>
-    <col width="9" customWidth="1" style="13" min="5" max="5"/>
-    <col width="7.28515625" customWidth="1" style="13" min="6" max="7"/>
-    <col width="14.5703125" customWidth="1" style="13" min="8" max="8"/>
-    <col width="22" customWidth="1" style="13" min="11" max="11"/>
-    <col width="90.7109375" customWidth="1" style="13" min="12" max="12"/>
-    <col width="48" customWidth="1" style="13" min="13" max="13"/>
-    <col width="19.5703125" customWidth="1" style="13" min="14" max="14"/>
-    <col width="18.28515625" customWidth="1" style="13" min="15" max="15"/>
-    <col width="16.85546875" customWidth="1" style="13" min="16" max="16"/>
+    <col width="49.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="25" customWidth="1" style="19" min="3" max="3"/>
+    <col width="9" customWidth="1" style="19" min="5" max="5"/>
+    <col width="7.28515625" customWidth="1" style="19" min="6" max="7"/>
+    <col width="14.5703125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="22" customWidth="1" style="19" min="11" max="11"/>
+    <col width="90.7109375" customWidth="1" style="19" min="12" max="12"/>
+    <col width="48" customWidth="1" style="19" min="13" max="13"/>
+    <col width="19.5703125" customWidth="1" style="19" min="14" max="14"/>
+    <col width="18.28515625" customWidth="1" style="19" min="15" max="15"/>
+    <col width="16.85546875" customWidth="1" style="19" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="13" thickBot="1">
+    <row r="1" ht="21" customHeight="1" s="19" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Number</t>
@@ -2567,7 +2522,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="77" customHeight="1" s="13">
+    <row r="2" ht="77" customHeight="1" s="19">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>FRZ001</t>
@@ -2624,7 +2579,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="3" ht="77" customHeight="1" s="13">
+    <row r="3" ht="77" customHeight="1" s="19">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>FRZ002</t>
@@ -2681,7 +2636,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="4" ht="77" customHeight="1" s="13">
+    <row r="4" ht="77" customHeight="1" s="19">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>FRZ003</t>
@@ -2738,7 +2693,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="5" ht="77" customHeight="1" s="13">
+    <row r="5" ht="77" customHeight="1" s="19">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>FRZ004</t>
@@ -2795,7 +2750,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="6" ht="77" customHeight="1" s="13">
+    <row r="6" ht="77" customHeight="1" s="19">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>FRZ005</t>
@@ -2852,7 +2807,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="7" ht="77" customHeight="1" s="13">
+    <row r="7" ht="77" customHeight="1" s="19">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>FRZ006</t>
@@ -2909,7 +2864,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="8" ht="77" customHeight="1" s="13">
+    <row r="8" ht="77" customHeight="1" s="19">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>FRZ007</t>
@@ -2966,7 +2921,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="9" ht="77" customHeight="1" s="13">
+    <row r="9" ht="77" customHeight="1" s="19">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>FRZ008</t>
@@ -3023,7 +2978,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="10" ht="77" customHeight="1" s="13">
+    <row r="10" ht="77" customHeight="1" s="19">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>FRZ009</t>
@@ -3080,7 +3035,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="11" ht="77" customHeight="1" s="13">
+    <row r="11" ht="77" customHeight="1" s="19">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>FRZ010</t>
@@ -3137,7 +3092,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="12" ht="77" customHeight="1" s="13">
+    <row r="12" ht="77" customHeight="1" s="19">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>FRZ011</t>
@@ -3194,7 +3149,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="13" ht="77" customHeight="1" s="13">
+    <row r="13" ht="77" customHeight="1" s="19">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>FRZ012</t>
@@ -3251,7 +3206,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="14" ht="77" customHeight="1" s="13">
+    <row r="14" ht="77" customHeight="1" s="19">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>FRZ013</t>
@@ -3308,7 +3263,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="15" ht="77" customHeight="1" s="13">
+    <row r="15" ht="77" customHeight="1" s="19">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>FRZ014</t>
@@ -3365,7 +3320,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="16" ht="77" customHeight="1" s="13">
+    <row r="16" ht="77" customHeight="1" s="19">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>FRZ015</t>
@@ -3422,7 +3377,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="17" ht="77" customHeight="1" s="13">
+    <row r="17" ht="77" customHeight="1" s="19">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>FRZ016</t>
@@ -3479,7 +3434,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="18" ht="77" customHeight="1" s="13">
+    <row r="18" ht="77" customHeight="1" s="19">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>FRZ017</t>
@@ -3536,7 +3491,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="19" ht="77" customHeight="1" s="13">
+    <row r="19" ht="77" customHeight="1" s="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>FRZ018</t>
@@ -3593,7 +3548,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="20" ht="77" customHeight="1" s="13">
+    <row r="20" ht="77" customHeight="1" s="19">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>FRZ019</t>
@@ -3650,7 +3605,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="21" ht="77" customHeight="1" s="13">
+    <row r="21" ht="77" customHeight="1" s="19">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>FRZ020</t>
@@ -3707,7 +3662,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="22" ht="77" customHeight="1" s="13">
+    <row r="22" ht="77" customHeight="1" s="19">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>FRZ021</t>
@@ -3764,7 +3719,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="23" ht="77" customHeight="1" s="13">
+    <row r="23" ht="77" customHeight="1" s="19">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>FRZ022</t>
@@ -3821,7 +3776,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="24" ht="77" customHeight="1" s="13">
+    <row r="24" ht="77" customHeight="1" s="19">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>FRZ023</t>
@@ -3878,7 +3833,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="25" ht="77" customHeight="1" s="13">
+    <row r="25" ht="77" customHeight="1" s="19">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>FRZ024</t>
@@ -3935,7 +3890,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="26" ht="77" customHeight="1" s="13">
+    <row r="26" ht="77" customHeight="1" s="19">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>FRZ025</t>
@@ -3992,7 +3947,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="27" ht="77" customHeight="1" s="13">
+    <row r="27" ht="77" customHeight="1" s="19">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>FRZ026</t>
@@ -4049,7 +4004,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="28" ht="77" customHeight="1" s="13">
+    <row r="28" ht="77" customHeight="1" s="19">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>FRZ027</t>
@@ -4106,7 +4061,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="29" ht="77" customHeight="1" s="13">
+    <row r="29" ht="77" customHeight="1" s="19">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>FRZ028</t>
@@ -4163,7 +4118,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="30" ht="77" customHeight="1" s="13">
+    <row r="30" ht="77" customHeight="1" s="19">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>FRZ029</t>
@@ -4220,7 +4175,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="31" ht="77" customHeight="1" s="13">
+    <row r="31" ht="77" customHeight="1" s="19">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>FRZ030</t>
@@ -4277,7 +4232,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="32" ht="77" customHeight="1" s="13">
+    <row r="32" ht="77" customHeight="1" s="19">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>FRZ031</t>
@@ -4334,7 +4289,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="33" ht="77" customHeight="1" s="13">
+    <row r="33" ht="77" customHeight="1" s="19">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>FRZ032</t>
@@ -4391,7 +4346,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="34" ht="77" customHeight="1" s="13">
+    <row r="34" ht="77" customHeight="1" s="19">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>FRZ033</t>
@@ -4448,7 +4403,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="35" ht="77" customHeight="1" s="13">
+    <row r="35" ht="77" customHeight="1" s="19">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>FRZ034</t>
@@ -4505,7 +4460,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="36" ht="77" customHeight="1" s="13">
+    <row r="36" ht="77" customHeight="1" s="19">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>FRZ035</t>
@@ -4562,7 +4517,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="37" ht="77" customHeight="1" s="13">
+    <row r="37" ht="77" customHeight="1" s="19">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>FRZ036</t>
@@ -4619,7 +4574,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="38" ht="77" customHeight="1" s="13">
+    <row r="38" ht="77" customHeight="1" s="19">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>FRZ037</t>
@@ -4676,7 +4631,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="39" ht="77" customHeight="1" s="13">
+    <row r="39" ht="77" customHeight="1" s="19">
       <c r="A39" s="0" t="inlineStr">
         <is>
           <t>FRZ038</t>
@@ -4733,7 +4688,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="40" ht="77" customHeight="1" s="13">
+    <row r="40" ht="77" customHeight="1" s="19">
       <c r="A40" s="0" t="inlineStr">
         <is>
           <t>FRZ039</t>
@@ -4790,7 +4745,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="41" ht="77" customHeight="1" s="13">
+    <row r="41" ht="77" customHeight="1" s="19">
       <c r="A41" s="0" t="inlineStr">
         <is>
           <t>FRZ040</t>
@@ -4847,7 +4802,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="42" ht="77" customHeight="1" s="13">
+    <row r="42" ht="77" customHeight="1" s="19">
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t>FRZ041</t>
@@ -4904,7 +4859,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="43" ht="77" customHeight="1" s="13">
+    <row r="43" ht="77" customHeight="1" s="19">
       <c r="A43" s="0" t="inlineStr">
         <is>
           <t>FRZ042</t>
@@ -4961,7 +4916,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="44" ht="77" customHeight="1" s="13">
+    <row r="44" ht="77" customHeight="1" s="19">
       <c r="A44" s="0" t="inlineStr">
         <is>
           <t>FRZ043</t>
@@ -5014,7 +4969,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="45" ht="77" customHeight="1" s="13">
+    <row r="45" ht="77" customHeight="1" s="19">
       <c r="A45" s="0" t="inlineStr">
         <is>
           <t>FRZ044</t>
@@ -5071,7 +5026,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="46" ht="77" customHeight="1" s="13">
+    <row r="46" ht="77" customHeight="1" s="19">
       <c r="A46" s="0" t="inlineStr">
         <is>
           <t>FRZ045</t>
@@ -5124,7 +5079,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="47" ht="77" customHeight="1" s="13">
+    <row r="47" ht="77" customHeight="1" s="19">
       <c r="A47" s="0" t="inlineStr">
         <is>
           <t>FRZ046</t>
@@ -5181,7 +5136,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="48" ht="77" customHeight="1" s="13">
+    <row r="48" ht="77" customHeight="1" s="19">
       <c r="A48" s="0" t="inlineStr">
         <is>
           <t>FRZ047</t>
@@ -5238,7 +5193,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="49" ht="77" customHeight="1" s="13">
+    <row r="49" ht="77" customHeight="1" s="19">
       <c r="A49" s="0" t="inlineStr">
         <is>
           <t>FRZ048</t>
@@ -5295,7 +5250,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="50" ht="77" customHeight="1" s="13">
+    <row r="50" ht="77" customHeight="1" s="19">
       <c r="A50" s="0" t="inlineStr">
         <is>
           <t>FRZ049</t>
@@ -5352,7 +5307,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="51" ht="77" customHeight="1" s="13">
+    <row r="51" ht="77" customHeight="1" s="19">
       <c r="A51" s="0" t="inlineStr">
         <is>
           <t>FRZ050</t>
@@ -5405,7 +5360,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="52" ht="77" customHeight="1" s="13">
+    <row r="52" ht="77" customHeight="1" s="19">
       <c r="A52" s="0" t="inlineStr">
         <is>
           <t>FRZ051</t>
@@ -5462,7 +5417,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="53" ht="77" customHeight="1" s="13">
+    <row r="53" ht="77" customHeight="1" s="19">
       <c r="A53" s="0" t="inlineStr">
         <is>
           <t>FRZ052</t>
@@ -5515,7 +5470,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="54" ht="77" customHeight="1" s="13">
+    <row r="54" ht="77" customHeight="1" s="19">
       <c r="A54" s="0" t="inlineStr">
         <is>
           <t>FRZ053</t>
@@ -5572,7 +5527,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="55" ht="77" customHeight="1" s="13">
+    <row r="55" ht="77" customHeight="1" s="19">
       <c r="A55" s="0" t="inlineStr">
         <is>
           <t>FRZ054</t>
@@ -5629,7 +5584,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="56" ht="77" customHeight="1" s="13">
+    <row r="56" ht="77" customHeight="1" s="19">
       <c r="A56" s="0" t="inlineStr">
         <is>
           <t>FRZ055</t>
@@ -5682,7 +5637,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="57" ht="77" customHeight="1" s="13">
+    <row r="57" ht="77" customHeight="1" s="19">
       <c r="A57" s="0" t="inlineStr">
         <is>
           <t>FRZ056</t>
@@ -5735,7 +5690,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="58" ht="77" customHeight="1" s="13">
+    <row r="58" ht="77" customHeight="1" s="19">
       <c r="A58" s="0" t="inlineStr">
         <is>
           <t>FRZ057</t>
@@ -5792,7 +5747,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="59" ht="77" customHeight="1" s="13">
+    <row r="59" ht="77" customHeight="1" s="19">
       <c r="A59" s="0" t="inlineStr">
         <is>
           <t>FRZ058</t>
@@ -5849,7 +5804,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="60" ht="77" customHeight="1" s="13">
+    <row r="60" ht="77" customHeight="1" s="19">
       <c r="A60" s="0" t="inlineStr">
         <is>
           <t>FRZ059</t>
@@ -5906,7 +5861,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="61" ht="77" customHeight="1" s="13">
+    <row r="61" ht="77" customHeight="1" s="19">
       <c r="A61" s="0" t="inlineStr">
         <is>
           <t>FRZ060</t>
@@ -5963,7 +5918,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="62" ht="77" customHeight="1" s="13">
+    <row r="62" ht="77" customHeight="1" s="19">
       <c r="A62" s="0" t="inlineStr">
         <is>
           <t>FRZ061</t>
@@ -6020,7 +5975,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="63" ht="77" customHeight="1" s="13">
+    <row r="63" ht="77" customHeight="1" s="19">
       <c r="A63" s="0" t="inlineStr">
         <is>
           <t>FRZ062</t>
@@ -6077,7 +6032,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="64" ht="77" customHeight="1" s="13">
+    <row r="64" ht="77" customHeight="1" s="19">
       <c r="A64" s="0" t="inlineStr">
         <is>
           <t>FRZ063</t>
@@ -6134,7 +6089,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="65" ht="77" customHeight="1" s="13">
+    <row r="65" ht="77" customHeight="1" s="19">
       <c r="A65" s="0" t="inlineStr">
         <is>
           <t>FRZ064</t>
@@ -6191,7 +6146,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="66" ht="77" customHeight="1" s="13">
+    <row r="66" ht="77" customHeight="1" s="19">
       <c r="A66" s="0" t="inlineStr">
         <is>
           <t>FRZ065</t>
@@ -6248,7 +6203,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="67" ht="77" customHeight="1" s="13">
+    <row r="67" ht="77" customHeight="1" s="19">
       <c r="A67" s="0" t="inlineStr">
         <is>
           <t>FRZ066</t>
@@ -6305,7 +6260,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="68" ht="77" customHeight="1" s="13">
+    <row r="68" ht="77" customHeight="1" s="19">
       <c r="A68" s="0" t="inlineStr">
         <is>
           <t>FRZ067</t>
@@ -6362,7 +6317,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="69" ht="77" customHeight="1" s="13">
+    <row r="69" ht="77" customHeight="1" s="19">
       <c r="A69" s="0" t="inlineStr">
         <is>
           <t>FRT001</t>
@@ -6419,7 +6374,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="70" ht="77" customHeight="1" s="13">
+    <row r="70" ht="77" customHeight="1" s="19">
       <c r="A70" s="0" t="inlineStr">
         <is>
           <t>FRT002</t>
@@ -6476,7 +6431,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="71" ht="77" customHeight="1" s="13">
+    <row r="71" ht="77" customHeight="1" s="19">
       <c r="A71" s="0" t="inlineStr">
         <is>
           <t>FRT003</t>
@@ -6533,7 +6488,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="72" ht="77" customHeight="1" s="13">
+    <row r="72" ht="77" customHeight="1" s="19">
       <c r="A72" s="0" t="inlineStr">
         <is>
           <t>FRT004</t>
@@ -6590,7 +6545,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="73" ht="77" customHeight="1" s="13">
+    <row r="73" ht="77" customHeight="1" s="19">
       <c r="A73" s="0" t="inlineStr">
         <is>
           <t>FRT005</t>
@@ -6647,7 +6602,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="74" ht="77" customHeight="1" s="13">
+    <row r="74" ht="77" customHeight="1" s="19">
       <c r="A74" s="0" t="inlineStr">
         <is>
           <t>FCA001</t>
@@ -6704,7 +6659,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="75" ht="77" customHeight="1" s="13">
+    <row r="75" ht="77" customHeight="1" s="19">
       <c r="A75" s="0" t="inlineStr">
         <is>
           <t>FCA002</t>
@@ -6761,7 +6716,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="76" ht="77" customHeight="1" s="13">
+    <row r="76" ht="77" customHeight="1" s="19">
       <c r="A76" s="0" t="inlineStr">
         <is>
           <t>FCA003</t>
@@ -6818,7 +6773,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="77" ht="77" customHeight="1" s="13">
+    <row r="77" ht="77" customHeight="1" s="19">
       <c r="A77" s="0" t="inlineStr">
         <is>
           <t>FCA004</t>
@@ -6875,7 +6830,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="78" ht="77" customHeight="1" s="13">
+    <row r="78" ht="77" customHeight="1" s="19">
       <c r="A78" s="0" t="inlineStr">
         <is>
           <t>FCA005</t>
@@ -6932,7 +6887,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="79" ht="77" customHeight="1" s="13">
+    <row r="79" ht="77" customHeight="1" s="19">
       <c r="A79" s="0" t="inlineStr">
         <is>
           <t>FCA006</t>
@@ -6989,7 +6944,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="80" ht="77" customHeight="1" s="13">
+    <row r="80" ht="77" customHeight="1" s="19">
       <c r="A80" s="0" t="inlineStr">
         <is>
           <t>FCA007</t>
@@ -7046,7 +7001,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="81" ht="77" customHeight="1" s="13">
+    <row r="81" ht="77" customHeight="1" s="19">
       <c r="A81" s="0" t="inlineStr">
         <is>
           <t>FCA008</t>
@@ -7103,7 +7058,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="82" ht="77" customHeight="1" s="13">
+    <row r="82" ht="77" customHeight="1" s="19">
       <c r="A82" s="0" t="inlineStr">
         <is>
           <t>FCA009</t>
@@ -7160,7 +7115,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="83" ht="77" customHeight="1" s="13">
+    <row r="83" ht="77" customHeight="1" s="19">
       <c r="A83" s="0" t="inlineStr">
         <is>
           <t>FCA010</t>
@@ -7217,7 +7172,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="84" ht="77" customHeight="1" s="13">
+    <row r="84" ht="77" customHeight="1" s="19">
       <c r="A84" s="0" t="inlineStr">
         <is>
           <t>FCC001</t>
@@ -7274,7 +7229,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="85" ht="77" customHeight="1" s="13">
+    <row r="85" ht="77" customHeight="1" s="19">
       <c r="A85" s="0" t="inlineStr">
         <is>
           <t>FCC002</t>
@@ -7331,7 +7286,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="86" ht="77" customHeight="1" s="13">
+    <row r="86" ht="77" customHeight="1" s="19">
       <c r="A86" s="0" t="inlineStr">
         <is>
           <t>FCC003</t>
@@ -7388,7 +7343,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="87" ht="77" customHeight="1" s="13">
+    <row r="87" ht="77" customHeight="1" s="19">
       <c r="A87" s="0" t="inlineStr">
         <is>
           <t>FCC004</t>
@@ -7445,7 +7400,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="88" ht="77" customHeight="1" s="13">
+    <row r="88" ht="77" customHeight="1" s="19">
       <c r="A88" s="0" t="inlineStr">
         <is>
           <t>FCC005</t>
@@ -7502,7 +7457,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="89" ht="77" customHeight="1" s="13">
+    <row r="89" ht="77" customHeight="1" s="19">
       <c r="A89" s="0" t="inlineStr">
         <is>
           <t>FCC006</t>
@@ -7559,7 +7514,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="90" ht="77" customHeight="1" s="13">
+    <row r="90" ht="77" customHeight="1" s="19">
       <c r="A90" s="0" t="inlineStr">
         <is>
           <t>FCC007</t>
@@ -7616,7 +7571,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="91" ht="77" customHeight="1" s="13">
+    <row r="91" ht="77" customHeight="1" s="19">
       <c r="A91" s="0" t="inlineStr">
         <is>
           <t>FCC008</t>
@@ -7673,7 +7628,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="92" ht="77" customHeight="1" s="13">
+    <row r="92" ht="77" customHeight="1" s="19">
       <c r="A92" s="0" t="inlineStr">
         <is>
           <t>FCC009</t>
@@ -7730,7 +7685,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="93" ht="77" customHeight="1" s="13">
+    <row r="93" ht="77" customHeight="1" s="19">
       <c r="A93" s="0" t="inlineStr">
         <is>
           <t>FCC010</t>
@@ -7787,7 +7742,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="94" ht="77" customHeight="1" s="13">
+    <row r="94" ht="77" customHeight="1" s="19">
       <c r="A94" s="0" t="inlineStr">
         <is>
           <t>FCC011</t>
@@ -7844,7 +7799,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="95" ht="77" customHeight="1" s="13">
+    <row r="95" ht="77" customHeight="1" s="19">
       <c r="A95" s="0" t="inlineStr">
         <is>
           <t>FCC012</t>
@@ -7901,7 +7856,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="96" ht="77" customHeight="1" s="13">
+    <row r="96" ht="77" customHeight="1" s="19">
       <c r="A96" s="0" t="inlineStr">
         <is>
           <t>FCF001</t>
@@ -7958,7 +7913,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="97" ht="77" customHeight="1" s="13">
+    <row r="97" ht="77" customHeight="1" s="19">
       <c r="A97" s="0" t="inlineStr">
         <is>
           <t>FCF002</t>
@@ -8015,7 +7970,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="98" ht="77" customHeight="1" s="13">
+    <row r="98" ht="77" customHeight="1" s="19">
       <c r="A98" s="0" t="inlineStr">
         <is>
           <t>FCF003</t>
@@ -8072,7 +8027,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="99" ht="77" customHeight="1" s="13">
+    <row r="99" ht="77" customHeight="1" s="19">
       <c r="A99" s="0" t="inlineStr">
         <is>
           <t>FCF004</t>
@@ -8129,7 +8084,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="100" ht="77" customHeight="1" s="13">
+    <row r="100" ht="77" customHeight="1" s="19">
       <c r="A100" s="0" t="inlineStr">
         <is>
           <t>FCF005</t>
@@ -8186,7 +8141,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="101" ht="77" customHeight="1" s="13">
+    <row r="101" ht="77" customHeight="1" s="19">
       <c r="A101" s="0" t="inlineStr">
         <is>
           <t>FCF006</t>
@@ -8243,7 +8198,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="102" ht="77" customHeight="1" s="13">
+    <row r="102" ht="77" customHeight="1" s="19">
       <c r="A102" s="0" t="inlineStr">
         <is>
           <t>FCF007</t>
@@ -8300,7 +8255,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="103" ht="77" customHeight="1" s="13">
+    <row r="103" ht="77" customHeight="1" s="19">
       <c r="A103" s="0" t="inlineStr">
         <is>
           <t>FCF008</t>
@@ -8357,7 +8312,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="104" ht="77" customHeight="1" s="13">
+    <row r="104" ht="77" customHeight="1" s="19">
       <c r="A104" s="0" t="inlineStr">
         <is>
           <t>FCF009</t>
@@ -8414,7 +8369,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="105" ht="77" customHeight="1" s="13">
+    <row r="105" ht="77" customHeight="1" s="19">
       <c r="A105" s="0" t="inlineStr">
         <is>
           <t>FCF010</t>
@@ -8471,7 +8426,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="106" ht="77" customHeight="1" s="13">
+    <row r="106" ht="77" customHeight="1" s="19">
       <c r="A106" s="0" t="inlineStr">
         <is>
           <t>FCF011</t>
@@ -8528,7 +8483,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="107" ht="77" customHeight="1" s="13">
+    <row r="107" ht="77" customHeight="1" s="19">
       <c r="A107" s="0" t="inlineStr">
         <is>
           <t>FCF012</t>
@@ -8585,7 +8540,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="108" ht="77" customHeight="1" s="13">
+    <row r="108" ht="77" customHeight="1" s="19">
       <c r="A108" s="0" t="inlineStr">
         <is>
           <t>FCF013</t>
@@ -8642,7 +8597,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="109" ht="77" customHeight="1" s="13">
+    <row r="109" ht="77" customHeight="1" s="19">
       <c r="A109" s="0" t="inlineStr">
         <is>
           <t>FCF014</t>
@@ -8699,7 +8654,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="110" ht="77" customHeight="1" s="13">
+    <row r="110" ht="77" customHeight="1" s="19">
       <c r="A110" s="0" t="inlineStr">
         <is>
           <t>FCF015</t>
@@ -8756,7 +8711,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="111" ht="77" customHeight="1" s="13">
+    <row r="111" ht="77" customHeight="1" s="19">
       <c r="A111" s="0" t="inlineStr">
         <is>
           <t>FCP001</t>
@@ -8813,7 +8768,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="112" ht="77" customHeight="1" s="13">
+    <row r="112" ht="77" customHeight="1" s="19">
       <c r="A112" s="0" t="inlineStr">
         <is>
           <t>FCP002</t>
@@ -8870,7 +8825,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="113" ht="77" customHeight="1" s="13">
+    <row r="113" ht="77" customHeight="1" s="19">
       <c r="A113" s="0" t="inlineStr">
         <is>
           <t>FCP003</t>
@@ -8927,7 +8882,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="114" ht="77" customHeight="1" s="13">
+    <row r="114" ht="77" customHeight="1" s="19">
       <c r="A114" s="0" t="inlineStr">
         <is>
           <t>FCP004</t>
@@ -8984,7 +8939,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="115" ht="77" customHeight="1" s="13">
+    <row r="115" ht="77" customHeight="1" s="19">
       <c r="A115" s="0" t="inlineStr">
         <is>
           <t>FCP005</t>
@@ -9041,7 +8996,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="116" ht="77" customHeight="1" s="13">
+    <row r="116" ht="77" customHeight="1" s="19">
       <c r="A116" s="0" t="inlineStr">
         <is>
           <t>FCP006</t>
@@ -9098,7 +9053,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="117" ht="77" customHeight="1" s="13">
+    <row r="117" ht="77" customHeight="1" s="19">
       <c r="A117" s="0" t="inlineStr">
         <is>
           <t>FCP007</t>
@@ -9155,7 +9110,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="118" ht="77" customHeight="1" s="13">
+    <row r="118" ht="77" customHeight="1" s="19">
       <c r="A118" s="0" t="inlineStr">
         <is>
           <t>FCP008</t>
@@ -9212,7 +9167,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="119" ht="77" customHeight="1" s="13">
+    <row r="119" ht="77" customHeight="1" s="19">
       <c r="A119" s="0" t="inlineStr">
         <is>
           <t>FCP009</t>
@@ -9269,7 +9224,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="120" ht="77" customHeight="1" s="13">
+    <row r="120" ht="77" customHeight="1" s="19">
       <c r="A120" s="0" t="inlineStr">
         <is>
           <t>FCP010</t>
@@ -9326,7 +9281,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="121" ht="77" customHeight="1" s="13">
+    <row r="121" ht="77" customHeight="1" s="19">
       <c r="A121" s="0" t="inlineStr">
         <is>
           <t>FCP011</t>
@@ -9383,7 +9338,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="122" ht="77" customHeight="1" s="13">
+    <row r="122" ht="77" customHeight="1" s="19">
       <c r="A122" s="0" t="inlineStr">
         <is>
           <t>FCP012</t>
@@ -9444,7 +9399,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="123" ht="77" customHeight="1" s="13">
+    <row r="123" ht="77" customHeight="1" s="19">
       <c r="A123" s="0" t="inlineStr">
         <is>
           <t>FCP013</t>
@@ -9505,7 +9460,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="124" ht="77" customHeight="1" s="13">
+    <row r="124" ht="77" customHeight="1" s="19">
       <c r="A124" s="0" t="inlineStr">
         <is>
           <t>FCP014</t>
@@ -9562,7 +9517,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="125" ht="77" customHeight="1" s="13">
+    <row r="125" ht="77" customHeight="1" s="19">
       <c r="A125" s="0" t="inlineStr">
         <is>
           <t>FCP015</t>
@@ -9623,7 +9578,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="126" ht="77" customHeight="1" s="13">
+    <row r="126" ht="77" customHeight="1" s="19">
       <c r="A126" s="0" t="inlineStr">
         <is>
           <t>FCP016</t>
@@ -9684,7 +9639,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="127" ht="77" customHeight="1" s="13">
+    <row r="127" ht="77" customHeight="1" s="19">
       <c r="A127" s="0" t="inlineStr">
         <is>
           <t>FCP017</t>
@@ -9745,7 +9700,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="128" ht="77" customHeight="1" s="13">
+    <row r="128" ht="77" customHeight="1" s="19">
       <c r="A128" s="0" t="inlineStr">
         <is>
           <t>FCP018</t>
@@ -9802,7 +9757,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="129" ht="77" customHeight="1" s="13">
+    <row r="129" ht="77" customHeight="1" s="19">
       <c r="A129" s="0" t="inlineStr">
         <is>
           <t>FCP019</t>
@@ -9863,7 +9818,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="130" ht="77" customHeight="1" s="13">
+    <row r="130" ht="77" customHeight="1" s="19">
       <c r="A130" s="0" t="inlineStr">
         <is>
           <t>FCP020</t>
@@ -9924,7 +9879,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="131" ht="77" customHeight="1" s="13">
+    <row r="131" ht="77" customHeight="1" s="19">
       <c r="A131" s="0" t="inlineStr">
         <is>
           <t>FCP021</t>
@@ -9981,7 +9936,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="132" ht="77" customHeight="1" s="13">
+    <row r="132" ht="77" customHeight="1" s="19">
       <c r="A132" s="0" t="inlineStr">
         <is>
           <t>FIU001</t>
@@ -10038,7 +9993,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="133" ht="77" customHeight="1" s="13">
+    <row r="133" ht="77" customHeight="1" s="19">
       <c r="A133" s="0" t="inlineStr">
         <is>
           <t>FIU002</t>
@@ -10095,7 +10050,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="134" ht="77" customHeight="1" s="13">
+    <row r="134" ht="77" customHeight="1" s="19">
       <c r="A134" s="0" t="inlineStr">
         <is>
           <t>FIU003</t>
@@ -10152,7 +10107,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="135" ht="77" customHeight="1" s="13">
+    <row r="135" ht="77" customHeight="1" s="19">
       <c r="A135" s="0" t="inlineStr">
         <is>
           <t>FIM001</t>
@@ -10209,7 +10164,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="136" ht="77" customHeight="1" s="13">
+    <row r="136" ht="77" customHeight="1" s="19">
       <c r="A136" s="0" t="inlineStr">
         <is>
           <t>FIM002</t>
@@ -10270,7 +10225,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="137" ht="77" customHeight="1" s="13">
+    <row r="137" ht="77" customHeight="1" s="19">
       <c r="A137" s="0" t="inlineStr">
         <is>
           <t>FIM003</t>
@@ -10327,7 +10282,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="138" ht="77" customHeight="1" s="13">
+    <row r="138" ht="77" customHeight="1" s="19">
       <c r="A138" s="0" t="inlineStr">
         <is>
           <t>FIM004</t>
@@ -10384,7 +10339,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="139" ht="77" customHeight="1" s="13">
+    <row r="139" ht="77" customHeight="1" s="19">
       <c r="A139" s="0" t="inlineStr">
         <is>
           <t>FIM005</t>
@@ -10441,7 +10396,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="140" ht="77" customHeight="1" s="13">
+    <row r="140" ht="77" customHeight="1" s="19">
       <c r="A140" s="0" t="inlineStr">
         <is>
           <t>FFZ001</t>
@@ -10492,7 +10447,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="141" ht="77" customHeight="1" s="13">
+    <row r="141" ht="77" customHeight="1" s="19">
       <c r="A141" s="0" t="inlineStr">
         <is>
           <t>FFZ002</t>
@@ -10543,7 +10498,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="142" ht="77" customHeight="1" s="13">
+    <row r="142" ht="77" customHeight="1" s="19">
       <c r="A142" s="0" t="inlineStr">
         <is>
           <t>FDZ001</t>
@@ -10601,7 +10556,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="143" ht="77" customHeight="1" s="13">
+    <row r="143" ht="77" customHeight="1" s="19">
       <c r="A143" s="0" t="inlineStr">
         <is>
           <t>FDZ002</t>
@@ -10658,7 +10613,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="144" ht="77" customHeight="1" s="13">
+    <row r="144" ht="77" customHeight="1" s="19">
       <c r="A144" s="0" t="inlineStr">
         <is>
           <t>FDZ003</t>
@@ -10715,7 +10670,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="145" ht="77" customHeight="1" s="13">
+    <row r="145" ht="77" customHeight="1" s="19">
       <c r="A145" s="0" t="inlineStr">
         <is>
           <t>FDZ004</t>
@@ -10772,7 +10727,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="146" ht="77" customHeight="1" s="13">
+    <row r="146" ht="77" customHeight="1" s="19">
       <c r="A146" s="0" t="inlineStr">
         <is>
           <t>FDZ005</t>
@@ -10829,7 +10784,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="147" ht="77" customHeight="1" s="13">
+    <row r="147" ht="77" customHeight="1" s="19">
       <c r="A147" s="0" t="inlineStr">
         <is>
           <t>FDZ006</t>
@@ -10886,7 +10841,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="148" ht="77" customHeight="1" s="13">
+    <row r="148" ht="77" customHeight="1" s="19">
       <c r="A148" s="0" t="inlineStr">
         <is>
           <t>FDZ007</t>
@@ -10943,7 +10898,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="149" ht="77" customHeight="1" s="13">
+    <row r="149" ht="77" customHeight="1" s="19">
       <c r="A149" s="0" t="inlineStr">
         <is>
           <t>FDZ008</t>
@@ -11000,7 +10955,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="150" ht="77" customHeight="1" s="13">
+    <row r="150" ht="77" customHeight="1" s="19">
       <c r="A150" s="0" t="inlineStr">
         <is>
           <t>FDZ009</t>
@@ -11057,7 +11012,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="151" ht="77" customHeight="1" s="13">
+    <row r="151" ht="77" customHeight="1" s="19">
       <c r="A151" s="0" t="inlineStr">
         <is>
           <t>FDZ010</t>
@@ -11114,7 +11069,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="152" ht="77" customHeight="1" s="13">
+    <row r="152" ht="77" customHeight="1" s="19">
       <c r="A152" s="0" t="inlineStr">
         <is>
           <t>FDZ011</t>
@@ -11171,7 +11126,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="153" ht="77" customHeight="1" s="13">
+    <row r="153" ht="77" customHeight="1" s="19">
       <c r="A153" s="0" t="inlineStr">
         <is>
           <t>FDZ012</t>
@@ -11228,7 +11183,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="154" ht="77" customHeight="1" s="13">
+    <row r="154" ht="77" customHeight="1" s="19">
       <c r="A154" s="0" t="inlineStr">
         <is>
           <t>FDZ013</t>
@@ -11285,7 +11240,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="155" ht="77" customHeight="1" s="13">
+    <row r="155" ht="77" customHeight="1" s="19">
       <c r="A155" s="0" t="inlineStr">
         <is>
           <t>FTN001</t>
@@ -11343,7 +11298,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="156" ht="77" customHeight="1" s="13">
+    <row r="156" ht="77" customHeight="1" s="19">
       <c r="A156" s="0" t="inlineStr">
         <is>
           <t>FTP002</t>
@@ -11401,7 +11356,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="157" ht="77" customHeight="1" s="13">
+    <row r="157" ht="77" customHeight="1" s="19">
       <c r="A157" s="0" t="inlineStr">
         <is>
           <t>FTN003</t>
@@ -11458,7 +11413,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="158" ht="77" customHeight="1" s="13">
+    <row r="158" ht="77" customHeight="1" s="19">
       <c r="A158" s="0" t="inlineStr">
         <is>
           <t>FTP004</t>
@@ -11515,7 +11470,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="159" ht="77" customHeight="1" s="13">
+    <row r="159" ht="77" customHeight="1" s="19">
       <c r="A159" s="0" t="inlineStr">
         <is>
           <t>FTN005</t>
@@ -11572,7 +11527,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="160" ht="77" customHeight="1" s="13">
+    <row r="160" ht="77" customHeight="1" s="19">
       <c r="A160" s="0" t="inlineStr">
         <is>
           <t>FTP006</t>
@@ -11629,7 +11584,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="161" ht="77" customHeight="1" s="13">
+    <row r="161" ht="77" customHeight="1" s="19">
       <c r="A161" s="0" t="inlineStr">
         <is>
           <t>FTN007</t>
@@ -11686,7 +11641,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="162" ht="77" customHeight="1" s="13">
+    <row r="162" ht="77" customHeight="1" s="19">
       <c r="A162" s="0" t="inlineStr">
         <is>
           <t>FTN008</t>
@@ -11744,7 +11699,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="163" ht="77" customHeight="1" s="13">
+    <row r="163" ht="77" customHeight="1" s="19">
       <c r="A163" s="0" t="inlineStr">
         <is>
           <t>FTP009</t>
@@ -11801,7 +11756,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="164" ht="77" customHeight="1" s="13">
+    <row r="164" ht="77" customHeight="1" s="19">
       <c r="A164" s="0" t="inlineStr">
         <is>
           <t>FTN010</t>
@@ -11858,7 +11813,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="165" ht="77" customHeight="1" s="13">
+    <row r="165" ht="77" customHeight="1" s="19">
       <c r="A165" s="0" t="inlineStr">
         <is>
           <t>FTP011</t>
@@ -11915,7 +11870,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="166" ht="77" customHeight="1" s="13">
+    <row r="166" ht="77" customHeight="1" s="19">
       <c r="A166" s="0" t="inlineStr">
         <is>
           <t>FTP012</t>
@@ -11972,7 +11927,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="167" ht="77" customHeight="1" s="13">
+    <row r="167" ht="77" customHeight="1" s="19">
       <c r="A167" s="0" t="inlineStr">
         <is>
           <t>FTN013</t>
@@ -12029,7 +11984,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="168" ht="77" customHeight="1" s="13">
+    <row r="168" ht="77" customHeight="1" s="19">
       <c r="A168" s="0" t="inlineStr">
         <is>
           <t>FTP014</t>
@@ -12086,7 +12041,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="169" ht="77" customHeight="1" s="13">
+    <row r="169" ht="77" customHeight="1" s="19">
       <c r="A169" s="0" t="inlineStr">
         <is>
           <t>FTN015</t>
@@ -12143,7 +12098,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="170" ht="77" customHeight="1" s="13">
+    <row r="170" ht="77" customHeight="1" s="19">
       <c r="A170" s="0" t="inlineStr">
         <is>
           <t>FTP016</t>
@@ -12200,7 +12155,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="171" ht="77" customHeight="1" s="13">
+    <row r="171" ht="77" customHeight="1" s="19">
       <c r="A171" s="0" t="inlineStr">
         <is>
           <t>FTN017</t>
@@ -12257,7 +12212,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="172" ht="77" customHeight="1" s="13">
+    <row r="172" ht="77" customHeight="1" s="19">
       <c r="A172" s="0" t="inlineStr">
         <is>
           <t>FTP018</t>
@@ -12318,7 +12273,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="173" ht="77" customHeight="1" s="13">
+    <row r="173" ht="77" customHeight="1" s="19">
       <c r="A173" s="0" t="inlineStr">
         <is>
           <t>FTN019</t>
@@ -12374,7 +12329,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="174" ht="77" customHeight="1" s="13">
+    <row r="174" ht="77" customHeight="1" s="19">
       <c r="A174" s="0" t="inlineStr">
         <is>
           <t>FTP020</t>
@@ -12430,7 +12385,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="175" ht="77" customHeight="1" s="13">
+    <row r="175" ht="77" customHeight="1" s="19">
       <c r="A175" s="0" t="inlineStr">
         <is>
           <t>FTP021</t>
@@ -12487,7 +12442,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="176" ht="77" customHeight="1" s="13">
+    <row r="176" ht="77" customHeight="1" s="19">
       <c r="A176" s="0" t="inlineStr">
         <is>
           <t>FTN022</t>
@@ -12544,7 +12499,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="177" ht="77" customHeight="1" s="13">
+    <row r="177" ht="77" customHeight="1" s="19">
       <c r="A177" s="0" t="inlineStr">
         <is>
           <t>FTN023</t>
@@ -12601,7 +12556,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="178" ht="77" customHeight="1" s="13">
+    <row r="178" ht="77" customHeight="1" s="19">
       <c r="A178" s="0" t="inlineStr">
         <is>
           <t>FTP024</t>
@@ -12658,7 +12613,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="179" ht="77" customHeight="1" s="13">
+    <row r="179" ht="77" customHeight="1" s="19">
       <c r="A179" s="0" t="inlineStr">
         <is>
           <t>FTM001</t>
@@ -12715,7 +12670,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="180" ht="77" customHeight="1" s="13">
+    <row r="180" ht="77" customHeight="1" s="19">
       <c r="A180" s="0" t="inlineStr">
         <is>
           <t>FTM002</t>
@@ -12772,7 +12727,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="181" ht="77" customHeight="1" s="13">
+    <row r="181" ht="77" customHeight="1" s="19">
       <c r="A181" s="0" t="inlineStr">
         <is>
           <t>FTM003</t>
@@ -12829,7 +12784,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="182" ht="77" customHeight="1" s="13">
+    <row r="182" ht="77" customHeight="1" s="19">
       <c r="A182" s="0" t="inlineStr">
         <is>
           <t>FTM004</t>
@@ -12886,7 +12841,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="183" ht="77" customHeight="1" s="13">
+    <row r="183" ht="77" customHeight="1" s="19">
       <c r="A183" s="0" t="inlineStr">
         <is>
           <t>FTM005</t>
@@ -12943,7 +12898,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="184" ht="77" customHeight="1" s="13">
+    <row r="184" ht="77" customHeight="1" s="19">
       <c r="A184" s="0" t="inlineStr">
         <is>
           <t>FTM006</t>
@@ -13000,7 +12955,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="185" ht="77" customHeight="1" s="13">
+    <row r="185" ht="77" customHeight="1" s="19">
       <c r="A185" s="0" t="inlineStr">
         <is>
           <t>FTM007</t>
@@ -13057,7 +13012,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="186" ht="77" customHeight="1" s="13">
+    <row r="186" ht="77" customHeight="1" s="19">
       <c r="A186" s="0" t="inlineStr">
         <is>
           <t>FLR001</t>
@@ -13114,7 +13069,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="187" ht="77" customHeight="1" s="13">
+    <row r="187" ht="77" customHeight="1" s="19">
       <c r="A187" s="0" t="inlineStr">
         <is>
           <t>FLG002</t>
@@ -13171,7 +13126,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="188" ht="77" customHeight="1" s="13">
+    <row r="188" ht="77" customHeight="1" s="19">
       <c r="A188" s="0" t="inlineStr">
         <is>
           <t>FLY003</t>
@@ -13228,7 +13183,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="189" ht="77" customHeight="1" s="13">
+    <row r="189" ht="77" customHeight="1" s="19">
       <c r="A189" s="0" t="inlineStr">
         <is>
           <t>FLO004</t>
@@ -13285,7 +13240,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="190" ht="77" customHeight="1" s="13">
+    <row r="190" ht="77" customHeight="1" s="19">
       <c r="A190" s="0" t="inlineStr">
         <is>
           <t>FLY005</t>
@@ -13342,7 +13297,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="191" ht="77" customHeight="1" s="13">
+    <row r="191" ht="77" customHeight="1" s="19">
       <c r="A191" s="0" t="inlineStr">
         <is>
           <t>FLO006</t>
@@ -13399,7 +13354,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="192" ht="77" customHeight="1" s="13">
+    <row r="192" ht="77" customHeight="1" s="19">
       <c r="A192" s="0" t="inlineStr">
         <is>
           <t>FLG007</t>
@@ -13456,7 +13411,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="193" ht="77" customHeight="1" s="13">
+    <row r="193" ht="77" customHeight="1" s="19">
       <c r="A193" s="0" t="inlineStr">
         <is>
           <t>FLR008</t>
@@ -13517,7 +13472,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="194" ht="77" customHeight="1" s="13">
+    <row r="194" ht="77" customHeight="1" s="19">
       <c r="A194" s="0" t="inlineStr">
         <is>
           <t>FLZ009</t>
@@ -13574,7 +13529,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="195" ht="77" customHeight="1" s="13">
+    <row r="195" ht="77" customHeight="1" s="19">
       <c r="A195" s="0" t="inlineStr">
         <is>
           <t>FLB010</t>
@@ -13631,7 +13586,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="196" ht="77" customHeight="1" s="13">
+    <row r="196" ht="77" customHeight="1" s="19">
       <c r="A196" s="0" t="inlineStr">
         <is>
           <t>FLG011</t>
@@ -13688,7 +13643,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="197" ht="77" customHeight="1" s="13">
+    <row r="197" ht="77" customHeight="1" s="19">
       <c r="A197" s="0" t="inlineStr">
         <is>
           <t>FLY012</t>
@@ -13745,7 +13700,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="198" ht="77" customHeight="1" s="13">
+    <row r="198" ht="77" customHeight="1" s="19">
       <c r="A198" s="0" t="inlineStr">
         <is>
           <t>FLR013</t>
@@ -13802,7 +13757,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="199" ht="77" customHeight="1" s="13">
+    <row r="199" ht="77" customHeight="1" s="19">
       <c r="A199" s="0" t="inlineStr">
         <is>
           <t>FLW014</t>
@@ -13859,7 +13814,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="200" ht="77" customHeight="1" s="13">
+    <row r="200" ht="77" customHeight="1" s="19">
       <c r="A200" s="0" t="inlineStr">
         <is>
           <t>FLW015</t>
@@ -13916,7 +13871,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="201" ht="77" customHeight="1" s="13">
+    <row r="201" ht="77" customHeight="1" s="19">
       <c r="A201" s="0" t="inlineStr">
         <is>
           <t>FLW016</t>
@@ -13973,7 +13928,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="202" ht="77" customHeight="1" s="13">
+    <row r="202" ht="77" customHeight="1" s="19">
       <c r="A202" s="0" t="inlineStr">
         <is>
           <t>FLG017</t>
@@ -14030,7 +13985,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="203" ht="77" customHeight="1" s="13">
+    <row r="203" ht="77" customHeight="1" s="19">
       <c r="A203" s="0" t="inlineStr">
         <is>
           <t>FLY018</t>
@@ -14087,7 +14042,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="204" ht="77" customHeight="1" s="13">
+    <row r="204" ht="77" customHeight="1" s="19">
       <c r="A204" s="0" t="inlineStr">
         <is>
           <t>FLR019</t>
@@ -14144,7 +14099,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="205" ht="77" customHeight="1" s="13">
+    <row r="205" ht="77" customHeight="1" s="19">
       <c r="A205" s="0" t="inlineStr">
         <is>
           <t>FLZ020</t>
@@ -14201,7 +14156,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="206" ht="77" customHeight="1" s="13">
+    <row r="206" ht="77" customHeight="1" s="19">
       <c r="A206" s="0" t="inlineStr">
         <is>
           <t>FLZ021</t>
@@ -14258,7 +14213,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="207" ht="77" customHeight="1" s="13">
+    <row r="207" ht="77" customHeight="1" s="19">
       <c r="A207" s="0" t="inlineStr">
         <is>
           <t>FLR022</t>
@@ -14319,7 +14274,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="208" ht="77" customHeight="1" s="13">
+    <row r="208" ht="77" customHeight="1" s="19">
       <c r="A208" s="0" t="inlineStr">
         <is>
           <t>FLR023</t>
@@ -14375,7 +14330,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="209" ht="77" customHeight="1" s="13">
+    <row r="209" ht="77" customHeight="1" s="19">
       <c r="A209" s="0" t="inlineStr">
         <is>
           <t>FLR024</t>
@@ -14431,7 +14386,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="210" ht="77" customHeight="1" s="13">
+    <row r="210" ht="77" customHeight="1" s="19">
       <c r="A210" s="0" t="inlineStr">
         <is>
           <t>FLZ025</t>
@@ -14487,7 +14442,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="211" ht="77" customHeight="1" s="13">
+    <row r="211" ht="77" customHeight="1" s="19">
       <c r="A211" s="0" t="inlineStr">
         <is>
           <t>FLZ026</t>
@@ -14544,7 +14499,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="212" ht="77" customHeight="1" s="13">
+    <row r="212" ht="77" customHeight="1" s="19">
       <c r="A212" s="0" t="inlineStr">
         <is>
           <t>FLZ027</t>
@@ -14601,7 +14556,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="213" ht="77" customHeight="1" s="13">
+    <row r="213" ht="77" customHeight="1" s="19">
       <c r="A213" s="0" t="inlineStr">
         <is>
           <t>FLZ028</t>
@@ -14651,7 +14606,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="214" ht="77" customHeight="1" s="13">
+    <row r="214" ht="77" customHeight="1" s="19">
       <c r="A214" s="0" t="inlineStr">
         <is>
           <t>FLZ029</t>
@@ -14705,7 +14660,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" ht="77" customHeight="1" s="13">
+    <row r="215" ht="77" customHeight="1" s="19">
       <c r="A215" s="0" t="inlineStr">
         <is>
           <t>FLZ030</t>
@@ -14762,7 +14717,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="216" ht="77" customHeight="1" s="13">
+    <row r="216" ht="77" customHeight="1" s="19">
       <c r="A216" s="0" t="inlineStr">
         <is>
           <t>FLZ031</t>
@@ -14819,7 +14774,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="217" ht="77" customHeight="1" s="13">
+    <row r="217" ht="77" customHeight="1" s="19">
       <c r="A217" s="0" t="inlineStr">
         <is>
           <t>FLZ032</t>
@@ -14876,7 +14831,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="218" ht="77" customHeight="1" s="13">
+    <row r="218" ht="77" customHeight="1" s="19">
       <c r="A218" s="0" t="inlineStr">
         <is>
           <t>FLZ033</t>
@@ -14933,7 +14888,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="219" ht="77" customHeight="1" s="13">
+    <row r="219" ht="77" customHeight="1" s="19">
       <c r="A219" s="0" t="inlineStr">
         <is>
           <t>FLZ034</t>
@@ -14990,7 +14945,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="220" ht="77" customHeight="1" s="13">
+    <row r="220" ht="77" customHeight="1" s="19">
       <c r="A220" s="0" t="inlineStr">
         <is>
           <t>FLZ035</t>
@@ -15051,7 +15006,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="221" ht="77" customHeight="1" s="13">
+    <row r="221" ht="77" customHeight="1" s="19">
       <c r="A221" s="0" t="inlineStr">
         <is>
           <t>FLZ036</t>
@@ -15112,7 +15067,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="222" ht="77" customHeight="1" s="13">
+    <row r="222" ht="77" customHeight="1" s="19">
       <c r="A222" s="0" t="inlineStr">
         <is>
           <t>FLZ037</t>
@@ -15169,7 +15124,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="223" ht="77" customHeight="1" s="13">
+    <row r="223" ht="77" customHeight="1" s="19">
       <c r="A223" s="0" t="inlineStr">
         <is>
           <t>FLZ038</t>
@@ -15226,7 +15181,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="224" ht="77" customHeight="1" s="13">
+    <row r="224" ht="77" customHeight="1" s="19">
       <c r="A224" s="0" t="inlineStr">
         <is>
           <t>FLZ039</t>
@@ -15287,7 +15242,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="225" ht="77" customHeight="1" s="13">
+    <row r="225" ht="77" customHeight="1" s="19">
       <c r="A225" s="0" t="inlineStr">
         <is>
           <t>FLZ040</t>
@@ -15344,7 +15299,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="226" ht="77" customHeight="1" s="13">
+    <row r="226" ht="77" customHeight="1" s="19">
       <c r="A226" s="0" t="inlineStr">
         <is>
           <t>FLZ041</t>
@@ -15401,7 +15356,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="227" ht="77" customHeight="1" s="13">
+    <row r="227" ht="77" customHeight="1" s="19">
       <c r="A227" s="0" t="inlineStr">
         <is>
           <t>FLZ042</t>
@@ -15462,7 +15417,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="228" ht="77" customHeight="1" s="13">
+    <row r="228" ht="77" customHeight="1" s="19">
       <c r="A228" s="0" t="inlineStr">
         <is>
           <t>FLZ043</t>
@@ -15519,7 +15474,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="229" ht="77" customHeight="1" s="13">
+    <row r="229" ht="77" customHeight="1" s="19">
       <c r="A229" s="0" t="inlineStr">
         <is>
           <t>FLW044</t>
@@ -15576,7 +15531,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="230" ht="77" customHeight="1" s="13">
+    <row r="230" ht="77" customHeight="1" s="19">
       <c r="A230" s="0" t="inlineStr">
         <is>
           <t>FLW045</t>
@@ -15633,7 +15588,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="231" ht="77" customHeight="1" s="13">
+    <row r="231" ht="77" customHeight="1" s="19">
       <c r="A231" s="0" t="inlineStr">
         <is>
           <t>FLW046</t>
@@ -15690,7 +15645,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="232" ht="77" customHeight="1" s="13">
+    <row r="232" ht="77" customHeight="1" s="19">
       <c r="A232" s="0" t="inlineStr">
         <is>
           <t>FLZ047</t>
@@ -15747,7 +15702,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="233" ht="77" customHeight="1" s="13">
+    <row r="233" ht="77" customHeight="1" s="19">
       <c r="A233" s="0" t="inlineStr">
         <is>
           <t>FLZ048</t>
@@ -15804,7 +15759,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="234" ht="77" customHeight="1" s="13">
+    <row r="234" ht="77" customHeight="1" s="19">
       <c r="A234" s="0" t="inlineStr">
         <is>
           <t>FLZ049</t>
@@ -15859,7 +15814,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="235" ht="77" customHeight="1" s="13">
+    <row r="235" ht="77" customHeight="1" s="19">
       <c r="A235" s="0" t="inlineStr">
         <is>
           <t>FLZ050</t>
@@ -15918,7 +15873,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="236" ht="77" customHeight="1" s="13">
+    <row r="236" ht="77" customHeight="1" s="19">
       <c r="A236" s="0" t="inlineStr">
         <is>
           <t>FLZ051</t>
@@ -15977,7 +15932,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="237" ht="77" customHeight="1" s="13">
+    <row r="237" ht="77" customHeight="1" s="19">
       <c r="A237" s="0" t="inlineStr">
         <is>
           <t>FLZ052</t>
@@ -16036,7 +15991,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="238" ht="77" customHeight="1" s="13">
+    <row r="238" ht="77" customHeight="1" s="19">
       <c r="A238" s="0" t="inlineStr">
         <is>
           <t>FLZ053</t>
@@ -16091,7 +16046,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="239" ht="77" customHeight="1" s="13">
+    <row r="239" ht="77" customHeight="1" s="19">
       <c r="A239" s="0" t="inlineStr">
         <is>
           <t>TMR001</t>
@@ -16148,7 +16103,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="240" ht="77" customHeight="1" s="13">
+    <row r="240" ht="77" customHeight="1" s="19">
       <c r="A240" s="0" t="inlineStr">
         <is>
           <t>TMR002</t>
@@ -16205,7 +16160,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="241" ht="77" customHeight="1" s="13">
+    <row r="241" ht="77" customHeight="1" s="19">
       <c r="A241" s="0" t="inlineStr">
         <is>
           <t>TMR003</t>
@@ -16262,7 +16217,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="242" ht="77" customHeight="1" s="13">
+    <row r="242" ht="77" customHeight="1" s="19">
       <c r="A242" s="0" t="inlineStr">
         <is>
           <t>TMR004</t>
@@ -16318,7 +16273,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="243" ht="77" customHeight="1" s="13">
+    <row r="243" ht="77" customHeight="1" s="19">
       <c r="A243" s="0" t="inlineStr">
         <is>
           <t>TMR005</t>
@@ -16370,7 +16325,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="244" ht="77" customHeight="1" s="13">
+    <row r="244" ht="77" customHeight="1" s="19">
       <c r="A244" s="0" t="inlineStr">
         <is>
           <t>TMR006</t>
@@ -16422,7 +16377,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="245" ht="77" customHeight="1" s="13">
+    <row r="245" ht="77" customHeight="1" s="19">
       <c r="A245" s="0" t="inlineStr">
         <is>
           <t>TMR007</t>
@@ -16474,7 +16429,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="246" ht="77" customHeight="1" s="13">
+    <row r="246" ht="77" customHeight="1" s="19">
       <c r="A246" s="0" t="inlineStr">
         <is>
           <t>TM</t>
@@ -16518,7 +16473,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="247" ht="69" customHeight="1" s="13">
+    <row r="247" ht="69" customHeight="1" s="19">
       <c r="B247" s="0" t="inlineStr">
         <is>
           <t>ES Propeller 2 Accessory kit</t>
@@ -16557,7 +16512,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="248" ht="69" customHeight="1" s="13">
+    <row r="248" ht="69" customHeight="1" s="19">
       <c r="B248" s="0" t="inlineStr">
         <is>
           <t>Propeller 2 Evaluation Board Rev.C</t>
@@ -16596,7 +16551,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="249" ht="69" customHeight="1" s="13">
+    <row r="249" ht="69" customHeight="1" s="19">
       <c r="B249" s="0" t="inlineStr">
         <is>
           <t>FTDI Breakout plus headers</t>
@@ -16637,7 +16592,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="250" ht="69" customHeight="1" s="13">
+    <row r="250" ht="69" customHeight="1" s="19">
       <c r="B250" s="0" t="inlineStr">
         <is>
           <t>MCP2221A USB to GPIO ADC 12C Breakout</t>
@@ -16678,7 +16633,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="251" ht="69" customHeight="1" s="13">
+    <row r="251" ht="69" customHeight="1" s="19">
       <c r="B251" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">Parallax 32201 Prop Plug </t>
@@ -16717,7 +16672,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="252" ht="69" customHeight="1" s="13">
+    <row r="252" ht="69" customHeight="1" s="19">
       <c r="B252" s="0" t="inlineStr">
         <is>
           <t>Propeller Flip Development Board</t>
@@ -16756,7 +16711,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="253" ht="69" customHeight="1" s="13">
+    <row r="253" ht="69" customHeight="1" s="19">
       <c r="B253" s="0" t="inlineStr">
         <is>
           <t>nRF51822 BLE MDBT40-256RV3</t>
@@ -16797,7 +16752,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="254" ht="69" customHeight="1" s="13">
+    <row r="254" ht="69" customHeight="1" s="19">
       <c r="B254" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">nRF51822 v3.0 Bluefruit Friend </t>
@@ -16838,7 +16793,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="255" ht="69" customHeight="1" s="13">
+    <row r="255" ht="69" customHeight="1" s="19">
       <c r="B255" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">GPS Breakout </t>
@@ -16879,7 +16834,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="256" ht="69" customHeight="1" s="13">
+    <row r="256" ht="69" customHeight="1" s="19">
       <c r="B256" s="0" t="inlineStr">
         <is>
           <t>Parallax P8X32A-D40 Propeller MCU 40-Pin DIP</t>
@@ -16920,7 +16875,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="257" ht="69" customHeight="1" s="13">
+    <row r="257" ht="69" customHeight="1" s="19">
       <c r="B257" s="0" t="inlineStr">
         <is>
           <t>Micorchip 256KB 16KB 10-BIT ADC</t>
@@ -16961,7 +16916,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="258" ht="69" customHeight="1" s="13">
+    <row r="258" ht="69" customHeight="1" s="19">
       <c r="B258" s="0" t="inlineStr">
         <is>
           <t>Micorchip 256KB 64KB 10-BIT ADC</t>
@@ -17002,7 +16957,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="259" ht="69" customHeight="1" s="13">
+    <row r="259" ht="69" customHeight="1" s="19">
       <c r="B259" s="0" t="inlineStr">
         <is>
           <t>32kB USB-UART LP Bridge</t>
@@ -17043,7 +16998,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="260" ht="69" customHeight="1" s="13">
+    <row r="260" ht="69" customHeight="1" s="19">
       <c r="B260" s="0" t="inlineStr">
         <is>
           <t>USB-Serial Single-CH Bridge</t>
@@ -17084,7 +17039,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="261" ht="69" customHeight="1" s="13">
+    <row r="261" ht="69" customHeight="1" s="19">
       <c r="B261" s="0" t="inlineStr">
         <is>
           <t>SPI UART</t>
@@ -17125,7 +17080,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="262" ht="69" customHeight="1" s="13">
+    <row r="262" ht="69" customHeight="1" s="19">
       <c r="B262" s="0" t="inlineStr">
         <is>
           <t>Espressif ESP32-WROOM-32E 4MB</t>
@@ -17166,7 +17121,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="263" ht="69" customHeight="1" s="13">
+    <row r="263" ht="69" customHeight="1" s="19">
       <c r="B263" s="0" t="inlineStr">
         <is>
           <t>Espressif ESP-WROOM-02D with headers</t>
@@ -17207,7 +17162,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="264" ht="69" customHeight="1" s="13">
+    <row r="264" ht="69" customHeight="1" s="19">
       <c r="B264" s="0" t="inlineStr">
         <is>
           <t>Propeller Mini Development Board</t>
@@ -17246,7 +17201,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="265" ht="69" customHeight="1" s="13">
+    <row r="265" ht="69" customHeight="1" s="19">
       <c r="B265" s="0" t="inlineStr">
         <is>
           <t>Xbee ZB S2C TH PCB A</t>
@@ -17287,7 +17242,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="266" ht="69" customHeight="1" s="13">
+    <row r="266" ht="69" customHeight="1" s="19">
       <c r="B266" s="0" t="inlineStr">
         <is>
           <t>Trinket-Mini 5V Logic Level</t>
@@ -17587,13 +17542,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col width="16.42578125" customWidth="1" style="13" min="2" max="2"/>
-    <col width="17.85546875" customWidth="1" style="13" min="4" max="4"/>
-    <col width="14.28515625" customWidth="1" style="13" min="6" max="6"/>
-    <col width="57" customWidth="1" style="13" min="7" max="7"/>
-    <col width="13.5703125" customWidth="1" style="13" min="9" max="9"/>
-    <col width="16.7109375" customWidth="1" style="13" min="10" max="10"/>
-    <col width="15.5703125" customWidth="1" style="13" min="22" max="22"/>
+    <col width="16.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="17.85546875" customWidth="1" style="19" min="4" max="4"/>
+    <col width="14.28515625" customWidth="1" style="19" min="6" max="6"/>
+    <col width="57" customWidth="1" style="19" min="7" max="7"/>
+    <col width="13.5703125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="16.7109375" customWidth="1" style="19" min="10" max="10"/>
+    <col width="15.5703125" customWidth="1" style="19" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -17604,13 +17559,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Record</t>
         </is>
       </c>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="15" t="n"/>
+      <c r="C4" s="21" t="n"/>
+      <c r="D4" s="22" t="n"/>
       <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Number</t>
@@ -17694,8 +17649,8 @@
           <t>Month</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="19" t="n"/>
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="23" t="n"/>
       <c r="F5" s="0" t="inlineStr">
         <is>
           <t>FRZ001</t>
@@ -17735,8 +17690,8 @@
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="15" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="22" t="n"/>
       <c r="I6" s="0" t="inlineStr">
         <is>
           <t>unit price</t>
@@ -17749,8 +17704,8 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="15" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="22" t="n"/>
       <c r="I7" s="0" t="inlineStr">
         <is>
           <t>Price change</t>
@@ -17812,8 +17767,8 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="15" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="22" t="n"/>
       <c r="J8" s="5" t="n"/>
     </row>
     <row r="9">
@@ -17822,11 +17777,11 @@
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <f>C8/C7</f>
         <v/>
       </c>
-      <c r="D9" s="15" t="n"/>
+      <c r="D9" s="22" t="n"/>
       <c r="F9" s="0" t="inlineStr">
         <is>
           <t>FRZ002</t>
@@ -17866,8 +17821,8 @@
           <t>URL</t>
         </is>
       </c>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="15" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="22" t="n"/>
       <c r="I10" s="0" t="inlineStr">
         <is>
           <t>unit price</t>

--- a/src/main_DB.xlsx
+++ b/src/main_DB.xlsx
@@ -42392,13 +42392,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="0" fitToHeight="0" fitToWidth="0" firstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
